--- a/activity_bar_chart (1).xlsx
+++ b/activity_bar_chart (1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuong Vy\Documents\GitHub\QuanLyCuaHangDienThoai\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10700" windowHeight="9130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10704" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="2" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Scrolling_Increment">Gantt!#REF!</definedName>
     <definedName name="Today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1059,62 +1064,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,6 +1137,93 @@
     <cellStyle name="zHiddenText" xfId="6"/>
   </cellStyles>
   <dxfs count="61">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-9.9917600024414813E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9917600024414813E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9917600024414813E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2048,93 +2140,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-9.9917600024414813E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9917600024414813E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9917600024414813E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -2200,16 +2205,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B6:I83" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B6:I83" totalsRowShown="0" headerRowDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" name="Tasks" dataDxfId="56"/>
-    <tableColumn id="2" name="Loại" dataDxfId="55"/>
-    <tableColumn id="3" name="Level" dataDxfId="54"/>
-    <tableColumn id="5" name="Phân công" dataDxfId="53"/>
-    <tableColumn id="7" name="Tiến trình" dataDxfId="52"/>
-    <tableColumn id="8" name="Bắt đầu" dataDxfId="51"/>
-    <tableColumn id="9" name="Thời gian" dataDxfId="50"/>
-    <tableColumn id="4" name="Column1" dataDxfId="49"/>
+    <tableColumn id="1" name="Tasks" dataDxfId="7"/>
+    <tableColumn id="2" name="Loại" dataDxfId="6"/>
+    <tableColumn id="3" name="Level" dataDxfId="5"/>
+    <tableColumn id="5" name="Phân công" dataDxfId="4"/>
+    <tableColumn id="7" name="Tiến trình" dataDxfId="3"/>
+    <tableColumn id="8" name="Bắt đầu" dataDxfId="2"/>
+    <tableColumn id="9" name="Thời gian" dataDxfId="1"/>
+    <tableColumn id="4" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2478,22 +2483,22 @@
   </sheetPr>
   <dimension ref="A1:BL85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T66" sqref="T66:U66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" hidden="1" customWidth="1"/>
-    <col min="10" max="61" width="3.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" hidden="1" customWidth="1"/>
+    <col min="10" max="61" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="77" customFormat="1" ht="54" customHeight="1">
@@ -2519,27 +2524,27 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
       <c r="T2" s="70"/>
       <c r="U2" s="70"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
       <c r="AA2" s="72"/>
       <c r="AB2" s="72"/>
       <c r="AC2" s="72"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="99" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="5"/>
@@ -2550,24 +2555,24 @@
       <c r="J3" s="14"/>
       <c r="P3" s="71"/>
       <c r="Q3" s="71"/>
-      <c r="R3" s="98" t="s">
+      <c r="R3" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
       <c r="X3" s="72"/>
       <c r="Y3" s="72"/>
-      <c r="Z3" s="99" t="s">
+      <c r="Z3" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="4"/>
@@ -2590,82 +2595,82 @@
       <c r="AB4" s="72"/>
       <c r="AC4" s="72"/>
     </row>
-    <row r="5" spans="1:64" ht="25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:64" ht="25.05" customHeight="1" thickBot="1">
       <c r="A5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="84"/>
       <c r="H5" s="85"/>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="107" t="s">
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="107" t="s">
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="107" t="s">
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="108"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="108"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="102"/>
-      <c r="AW5" s="102"/>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="102"/>
-      <c r="BF5" s="102"/>
-      <c r="BG5" s="102"/>
-      <c r="BH5" s="102"/>
-      <c r="BI5" s="102"/>
-      <c r="BJ5" s="102"/>
-      <c r="BK5" s="102"/>
-      <c r="BL5" s="102"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
+      <c r="AX5" s="114"/>
+      <c r="AY5" s="114"/>
+      <c r="AZ5" s="114"/>
+      <c r="BA5" s="114"/>
+      <c r="BB5" s="114"/>
+      <c r="BC5" s="114"/>
+      <c r="BD5" s="114"/>
+      <c r="BE5" s="114"/>
+      <c r="BF5" s="114"/>
+      <c r="BG5" s="114"/>
+      <c r="BH5" s="114"/>
+      <c r="BI5" s="114"/>
+      <c r="BJ5" s="114"/>
+      <c r="BK5" s="114"/>
+      <c r="BL5" s="114"/>
     </row>
-    <row r="6" spans="1:64" s="96" customFormat="1" ht="31" customHeight="1">
+    <row r="6" spans="1:64" s="96" customFormat="1" ht="31.05" customHeight="1">
       <c r="A6" s="95" t="s">
         <v>3</v>
       </c>
@@ -2693,93 +2698,93 @@
       <c r="I6" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="109">
         <v>1</v>
       </c>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105">
+      <c r="K6" s="110"/>
+      <c r="L6" s="110">
         <v>2</v>
       </c>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105">
+      <c r="M6" s="110"/>
+      <c r="N6" s="110">
         <v>3</v>
       </c>
-      <c r="O6" s="106"/>
-      <c r="P6" s="104">
+      <c r="O6" s="111"/>
+      <c r="P6" s="109">
         <v>4</v>
       </c>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="104">
+      <c r="Q6" s="110"/>
+      <c r="R6" s="109">
         <v>1</v>
       </c>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105">
+      <c r="S6" s="110"/>
+      <c r="T6" s="110">
         <v>2</v>
       </c>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105">
+      <c r="U6" s="110"/>
+      <c r="V6" s="110">
         <v>3</v>
       </c>
-      <c r="W6" s="106"/>
-      <c r="X6" s="104">
+      <c r="W6" s="111"/>
+      <c r="X6" s="109">
         <v>4</v>
       </c>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="104">
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="109">
         <v>1</v>
       </c>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105">
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110">
         <v>2</v>
       </c>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105">
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110">
         <v>3</v>
       </c>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="104">
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="109">
         <v>4</v>
       </c>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="104">
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="109">
         <v>1</v>
       </c>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105">
+      <c r="AI6" s="110"/>
+      <c r="AJ6" s="110">
         <v>2</v>
       </c>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105">
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110">
         <v>3</v>
       </c>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="104">
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="109">
         <v>4</v>
       </c>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
-      <c r="BE6" s="102"/>
-      <c r="BF6" s="102"/>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="102"/>
-      <c r="BI6" s="102"/>
-      <c r="BJ6" s="102"/>
-      <c r="BK6" s="102"/>
-      <c r="BL6" s="102"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114"/>
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="114"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2905,7 +2910,7 @@
         <v/>
       </c>
       <c r="AL7" s="21" t="str">
-        <f t="shared" ref="AL7:AU11" si="3">IF(AND($C8="Goal",AL$5&gt;=$G8,AL$5&lt;=$G8+$H8-1),2,IF(AND($C8="Milestone",AL$5&gt;=$G8,AL$5&lt;=$G8+$H8-1),1,""))</f>
+        <f t="shared" ref="AL7:AO11" si="3">IF(AND($C8="Goal",AL$5&gt;=$G8,AL$5&lt;=$G8+$H8-1),2,IF(AND($C8="Milestone",AL$5&gt;=$G8,AL$5&lt;=$G8+$H8-1),1,""))</f>
         <v/>
       </c>
       <c r="AM7" s="21" t="str">
@@ -2920,29 +2925,29 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="102"/>
-      <c r="AR7" s="102"/>
-      <c r="AS7" s="102"/>
-      <c r="AT7" s="102"/>
-      <c r="AU7" s="102"/>
-      <c r="AV7" s="102"/>
-      <c r="AW7" s="102"/>
-      <c r="AX7" s="102"/>
-      <c r="AY7" s="102"/>
-      <c r="AZ7" s="102"/>
-      <c r="BA7" s="102"/>
-      <c r="BB7" s="102"/>
-      <c r="BC7" s="102"/>
-      <c r="BD7" s="102"/>
-      <c r="BE7" s="102"/>
-      <c r="BF7" s="102"/>
-      <c r="BG7" s="102"/>
-      <c r="BH7" s="102"/>
-      <c r="BI7" s="102"/>
-      <c r="BJ7" s="102"/>
-      <c r="BK7" s="102"/>
-      <c r="BL7" s="102"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="114"/>
+      <c r="BD7" s="114"/>
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="114"/>
+      <c r="BJ7" s="114"/>
+      <c r="BK7" s="114"/>
+      <c r="BL7" s="114"/>
     </row>
     <row r="8" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -3086,29 +3091,29 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="102"/>
-      <c r="AR8" s="102"/>
-      <c r="AS8" s="102"/>
-      <c r="AT8" s="102"/>
-      <c r="AU8" s="102"/>
-      <c r="AV8" s="102"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="102"/>
-      <c r="AY8" s="102"/>
-      <c r="AZ8" s="102"/>
-      <c r="BA8" s="102"/>
-      <c r="BB8" s="102"/>
-      <c r="BC8" s="102"/>
-      <c r="BD8" s="102"/>
-      <c r="BE8" s="102"/>
-      <c r="BF8" s="102"/>
-      <c r="BG8" s="102"/>
-      <c r="BH8" s="102"/>
-      <c r="BI8" s="102"/>
-      <c r="BJ8" s="102"/>
-      <c r="BK8" s="102"/>
-      <c r="BL8" s="102"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
+      <c r="AX8" s="114"/>
+      <c r="AY8" s="114"/>
+      <c r="AZ8" s="114"/>
+      <c r="BA8" s="114"/>
+      <c r="BB8" s="114"/>
+      <c r="BC8" s="114"/>
+      <c r="BD8" s="114"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="114"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
+      <c r="BI8" s="114"/>
+      <c r="BJ8" s="114"/>
+      <c r="BK8" s="114"/>
+      <c r="BL8" s="114"/>
     </row>
     <row r="9" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A9" s="15"/>
@@ -3134,11 +3139,11 @@
         <v>2</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="100" t="str">
+      <c r="J9" s="102" t="str">
         <f>IF(AND($C10="Goal",J$6&gt;=$G10,J$6&lt;=$G10+$H10-1),2,IF(AND($C10="Milestone",J$6&gt;=$G10,J$6&lt;=$G10+$H10-1),1,""))</f>
         <v/>
       </c>
-      <c r="K9" s="101"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="21" t="str">
         <f t="shared" ref="L9:Q11" si="5">IF(AND($C10="Goal",L$6&gt;=$G10,L$6&lt;=$G10+$H10-1),2,IF(AND($C10="Milestone",L$6&gt;=$G10,L$6&lt;=$G10+$H10-1),1,""))</f>
         <v/>
@@ -3259,29 +3264,29 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
-      <c r="BJ9" s="102"/>
-      <c r="BK9" s="102"/>
-      <c r="BL9" s="102"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+      <c r="AX9" s="114"/>
+      <c r="AY9" s="114"/>
+      <c r="AZ9" s="114"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="114"/>
+      <c r="BC9" s="114"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="114"/>
+      <c r="BG9" s="114"/>
+      <c r="BH9" s="114"/>
+      <c r="BI9" s="114"/>
+      <c r="BJ9" s="114"/>
+      <c r="BK9" s="114"/>
+      <c r="BL9" s="114"/>
     </row>
     <row r="10" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A10" s="15"/>
@@ -3307,11 +3312,11 @@
         <v>2</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="100" t="str">
+      <c r="J10" s="102" t="str">
         <f>IF(AND($C11="Goal",J$6&gt;=$G11,J$6&lt;=$G11+$H11-1),2,IF(AND($C11="Milestone",J$6&gt;=$G11,J$6&lt;=$G11+$H11-1),1,""))</f>
         <v/>
       </c>
-      <c r="K10" s="101"/>
+      <c r="K10" s="103"/>
       <c r="L10" s="21" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3432,29 +3437,29 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
-      <c r="BJ10" s="102"/>
-      <c r="BK10" s="102"/>
-      <c r="BL10" s="102"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
+      <c r="BI10" s="114"/>
+      <c r="BJ10" s="114"/>
+      <c r="BK10" s="114"/>
+      <c r="BL10" s="114"/>
     </row>
     <row r="11" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="24"/>
@@ -3480,11 +3485,11 @@
         <v>2</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="100" t="str">
+      <c r="J11" s="102" t="str">
         <f>IF(AND($C12="Goal",J$6&gt;=$G12,J$6&lt;=$G12+$H12-1),2,IF(AND($C12="Milestone",J$6&gt;=$G12,J$6&lt;=$G12+$H12-1),1,""))</f>
         <v/>
       </c>
-      <c r="K11" s="101"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="21" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3605,29 +3610,29 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="102"/>
-      <c r="AU11" s="102"/>
-      <c r="AV11" s="102"/>
-      <c r="AW11" s="102"/>
-      <c r="AX11" s="102"/>
-      <c r="AY11" s="102"/>
-      <c r="AZ11" s="102"/>
-      <c r="BA11" s="102"/>
-      <c r="BB11" s="102"/>
-      <c r="BC11" s="102"/>
-      <c r="BD11" s="102"/>
-      <c r="BE11" s="102"/>
-      <c r="BF11" s="102"/>
-      <c r="BG11" s="102"/>
-      <c r="BH11" s="102"/>
-      <c r="BI11" s="102"/>
-      <c r="BJ11" s="102"/>
-      <c r="BK11" s="102"/>
-      <c r="BL11" s="102"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="114"/>
+      <c r="AZ11" s="114"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="114"/>
+      <c r="BC11" s="114"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="114"/>
+      <c r="BF11" s="114"/>
+      <c r="BG11" s="114"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="114"/>
+      <c r="BJ11" s="114"/>
+      <c r="BK11" s="114"/>
+      <c r="BL11" s="114"/>
     </row>
     <row r="12" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A12" s="24"/>
@@ -3685,29 +3690,29 @@
       <c r="AM12" s="21"/>
       <c r="AN12" s="21"/>
       <c r="AO12" s="21"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="102"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="102"/>
-      <c r="AT12" s="102"/>
-      <c r="AU12" s="102"/>
-      <c r="AV12" s="102"/>
-      <c r="AW12" s="102"/>
-      <c r="AX12" s="102"/>
-      <c r="AY12" s="102"/>
-      <c r="AZ12" s="102"/>
-      <c r="BA12" s="102"/>
-      <c r="BB12" s="102"/>
-      <c r="BC12" s="102"/>
-      <c r="BD12" s="102"/>
-      <c r="BE12" s="102"/>
-      <c r="BF12" s="102"/>
-      <c r="BG12" s="102"/>
-      <c r="BH12" s="102"/>
-      <c r="BI12" s="102"/>
-      <c r="BJ12" s="102"/>
-      <c r="BK12" s="102"/>
-      <c r="BL12" s="102"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
+      <c r="BJ12" s="114"/>
+      <c r="BK12" s="114"/>
+      <c r="BL12" s="114"/>
     </row>
     <row r="13" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A13" s="24"/>
@@ -3739,11 +3744,11 @@
         <f>IF(AND($C14="Goal",K$6&gt;=$G14,K$6&lt;=$G14+$H14-1),2,IF(AND($C14="Milestone",K$6&gt;=$G14,K$6&lt;=$G14+$H14-1),1,""))</f>
         <v/>
       </c>
-      <c r="L13" s="100" t="str">
+      <c r="L13" s="102" t="str">
         <f>IF(AND($C14="Goal",L$6&gt;=$G14,L$6&lt;=$G14+$H14-1),2,IF(AND($C14="Milestone",L$6&gt;=$G14,L$6&lt;=$G14+$H14-1),1,""))</f>
         <v/>
       </c>
-      <c r="M13" s="101"/>
+      <c r="M13" s="103"/>
       <c r="N13" s="33" t="str">
         <f>IF(AND($C14="Goal",N$6&gt;=$G14,N$6&lt;=$G14+$H14-1),2,IF(AND($C14="Milestone",N$6&gt;=$G14,N$6&lt;=$G14+$H14-1),1,""))</f>
         <v/>
@@ -3856,29 +3861,29 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AP13" s="102"/>
-      <c r="AQ13" s="102"/>
-      <c r="AR13" s="102"/>
-      <c r="AS13" s="102"/>
-      <c r="AT13" s="102"/>
-      <c r="AU13" s="102"/>
-      <c r="AV13" s="102"/>
-      <c r="AW13" s="102"/>
-      <c r="AX13" s="102"/>
-      <c r="AY13" s="102"/>
-      <c r="AZ13" s="102"/>
-      <c r="BA13" s="102"/>
-      <c r="BB13" s="102"/>
-      <c r="BC13" s="102"/>
-      <c r="BD13" s="102"/>
-      <c r="BE13" s="102"/>
-      <c r="BF13" s="102"/>
-      <c r="BG13" s="102"/>
-      <c r="BH13" s="102"/>
-      <c r="BI13" s="102"/>
-      <c r="BJ13" s="102"/>
-      <c r="BK13" s="102"/>
-      <c r="BL13" s="102"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
+      <c r="BJ13" s="114"/>
+      <c r="BK13" s="114"/>
+      <c r="BL13" s="114"/>
     </row>
     <row r="14" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="94"/>
@@ -3924,29 +3929,29 @@
       <c r="AM14" s="33"/>
       <c r="AN14" s="33"/>
       <c r="AO14" s="33"/>
-      <c r="AP14" s="102"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="102"/>
-      <c r="AS14" s="102"/>
-      <c r="AT14" s="102"/>
-      <c r="AU14" s="102"/>
-      <c r="AV14" s="102"/>
-      <c r="AW14" s="102"/>
-      <c r="AX14" s="102"/>
-      <c r="AY14" s="102"/>
-      <c r="AZ14" s="102"/>
-      <c r="BA14" s="102"/>
-      <c r="BB14" s="102"/>
-      <c r="BC14" s="102"/>
-      <c r="BD14" s="102"/>
-      <c r="BE14" s="102"/>
-      <c r="BF14" s="102"/>
-      <c r="BG14" s="102"/>
-      <c r="BH14" s="102"/>
-      <c r="BI14" s="102"/>
-      <c r="BJ14" s="102"/>
-      <c r="BK14" s="102"/>
-      <c r="BL14" s="102"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
+      <c r="BJ14" s="114"/>
+      <c r="BK14" s="114"/>
+      <c r="BL14" s="114"/>
     </row>
     <row r="15" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A15" s="15"/>
@@ -3972,8 +3977,8 @@
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="101"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="103"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -4002,29 +4007,29 @@
       <c r="AM15" s="21"/>
       <c r="AN15" s="21"/>
       <c r="AO15" s="21"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="102"/>
-      <c r="AS15" s="102"/>
-      <c r="AT15" s="102"/>
-      <c r="AU15" s="102"/>
-      <c r="AV15" s="102"/>
-      <c r="AW15" s="102"/>
-      <c r="AX15" s="102"/>
-      <c r="AY15" s="102"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="102"/>
-      <c r="BB15" s="102"/>
-      <c r="BC15" s="102"/>
-      <c r="BD15" s="102"/>
-      <c r="BE15" s="102"/>
-      <c r="BF15" s="102"/>
-      <c r="BG15" s="102"/>
-      <c r="BH15" s="102"/>
-      <c r="BI15" s="102"/>
-      <c r="BJ15" s="102"/>
-      <c r="BK15" s="102"/>
-      <c r="BL15" s="102"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
+      <c r="BJ15" s="114"/>
+      <c r="BK15" s="114"/>
+      <c r="BL15" s="114"/>
     </row>
     <row r="16" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A16" s="15"/>
@@ -4164,29 +4169,29 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="102"/>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="102"/>
-      <c r="AX16" s="102"/>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="102"/>
-      <c r="BC16" s="102"/>
-      <c r="BD16" s="102"/>
-      <c r="BE16" s="102"/>
-      <c r="BF16" s="102"/>
-      <c r="BG16" s="102"/>
-      <c r="BH16" s="102"/>
-      <c r="BI16" s="102"/>
-      <c r="BJ16" s="102"/>
-      <c r="BK16" s="102"/>
-      <c r="BL16" s="102"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
+      <c r="BI16" s="114"/>
+      <c r="BJ16" s="114"/>
+      <c r="BK16" s="114"/>
+      <c r="BL16" s="114"/>
     </row>
     <row r="17" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A17" s="24"/>
@@ -4214,8 +4219,8 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="101"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
@@ -4242,29 +4247,29 @@
       <c r="AM17" s="21"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="21"/>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="102"/>
-      <c r="AS17" s="102"/>
-      <c r="AT17" s="102"/>
-      <c r="AU17" s="102"/>
-      <c r="AV17" s="102"/>
-      <c r="AW17" s="102"/>
-      <c r="AX17" s="102"/>
-      <c r="AY17" s="102"/>
-      <c r="AZ17" s="102"/>
-      <c r="BA17" s="102"/>
-      <c r="BB17" s="102"/>
-      <c r="BC17" s="102"/>
-      <c r="BD17" s="102"/>
-      <c r="BE17" s="102"/>
-      <c r="BF17" s="102"/>
-      <c r="BG17" s="102"/>
-      <c r="BH17" s="102"/>
-      <c r="BI17" s="102"/>
-      <c r="BJ17" s="102"/>
-      <c r="BK17" s="102"/>
-      <c r="BL17" s="102"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="114"/>
+      <c r="BG17" s="114"/>
+      <c r="BH17" s="114"/>
+      <c r="BI17" s="114"/>
+      <c r="BJ17" s="114"/>
+      <c r="BK17" s="114"/>
+      <c r="BL17" s="114"/>
     </row>
     <row r="18" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A18" s="24"/>
@@ -4308,29 +4313,29 @@
       <c r="AM18" s="21"/>
       <c r="AN18" s="21"/>
       <c r="AO18" s="21"/>
-      <c r="AP18" s="102"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="102"/>
-      <c r="AT18" s="102"/>
-      <c r="AU18" s="102"/>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="102"/>
-      <c r="AX18" s="102"/>
-      <c r="AY18" s="102"/>
-      <c r="AZ18" s="102"/>
-      <c r="BA18" s="102"/>
-      <c r="BB18" s="102"/>
-      <c r="BC18" s="102"/>
-      <c r="BD18" s="102"/>
-      <c r="BE18" s="102"/>
-      <c r="BF18" s="102"/>
-      <c r="BG18" s="102"/>
-      <c r="BH18" s="102"/>
-      <c r="BI18" s="102"/>
-      <c r="BJ18" s="102"/>
-      <c r="BK18" s="102"/>
-      <c r="BL18" s="102"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
+      <c r="BI18" s="114"/>
+      <c r="BJ18" s="114"/>
+      <c r="BK18" s="114"/>
+      <c r="BL18" s="114"/>
     </row>
     <row r="19" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A19" s="24"/>
@@ -4374,29 +4379,29 @@
       <c r="AM19" s="21"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="21"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="102"/>
-      <c r="AR19" s="102"/>
-      <c r="AS19" s="102"/>
-      <c r="AT19" s="102"/>
-      <c r="AU19" s="102"/>
-      <c r="AV19" s="102"/>
-      <c r="AW19" s="102"/>
-      <c r="AX19" s="102"/>
-      <c r="AY19" s="102"/>
-      <c r="AZ19" s="102"/>
-      <c r="BA19" s="102"/>
-      <c r="BB19" s="102"/>
-      <c r="BC19" s="102"/>
-      <c r="BD19" s="102"/>
-      <c r="BE19" s="102"/>
-      <c r="BF19" s="102"/>
-      <c r="BG19" s="102"/>
-      <c r="BH19" s="102"/>
-      <c r="BI19" s="102"/>
-      <c r="BJ19" s="102"/>
-      <c r="BK19" s="102"/>
-      <c r="BL19" s="102"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
+      <c r="AX19" s="114"/>
+      <c r="AY19" s="114"/>
+      <c r="AZ19" s="114"/>
+      <c r="BA19" s="114"/>
+      <c r="BB19" s="114"/>
+      <c r="BC19" s="114"/>
+      <c r="BD19" s="114"/>
+      <c r="BE19" s="114"/>
+      <c r="BF19" s="114"/>
+      <c r="BG19" s="114"/>
+      <c r="BH19" s="114"/>
+      <c r="BI19" s="114"/>
+      <c r="BJ19" s="114"/>
+      <c r="BK19" s="114"/>
+      <c r="BL19" s="114"/>
     </row>
     <row r="20" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A20" s="24"/>
@@ -4426,8 +4431,8 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
@@ -4452,29 +4457,29 @@
       <c r="AM20" s="21"/>
       <c r="AN20" s="21"/>
       <c r="AO20" s="21"/>
-      <c r="AP20" s="102"/>
-      <c r="AQ20" s="102"/>
-      <c r="AR20" s="102"/>
-      <c r="AS20" s="102"/>
-      <c r="AT20" s="102"/>
-      <c r="AU20" s="102"/>
-      <c r="AV20" s="102"/>
-      <c r="AW20" s="102"/>
-      <c r="AX20" s="102"/>
-      <c r="AY20" s="102"/>
-      <c r="AZ20" s="102"/>
-      <c r="BA20" s="102"/>
-      <c r="BB20" s="102"/>
-      <c r="BC20" s="102"/>
-      <c r="BD20" s="102"/>
-      <c r="BE20" s="102"/>
-      <c r="BF20" s="102"/>
-      <c r="BG20" s="102"/>
-      <c r="BH20" s="102"/>
-      <c r="BI20" s="102"/>
-      <c r="BJ20" s="102"/>
-      <c r="BK20" s="102"/>
-      <c r="BL20" s="102"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="114"/>
+      <c r="AZ20" s="114"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="114"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="114"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="114"/>
+      <c r="BI20" s="114"/>
+      <c r="BJ20" s="114"/>
+      <c r="BK20" s="114"/>
+      <c r="BL20" s="114"/>
     </row>
     <row r="21" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A21" s="24"/>
@@ -4504,8 +4509,8 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
@@ -4530,29 +4535,29 @@
       <c r="AM21" s="21"/>
       <c r="AN21" s="21"/>
       <c r="AO21" s="21"/>
-      <c r="AP21" s="102"/>
-      <c r="AQ21" s="102"/>
-      <c r="AR21" s="102"/>
-      <c r="AS21" s="102"/>
-      <c r="AT21" s="102"/>
-      <c r="AU21" s="102"/>
-      <c r="AV21" s="102"/>
-      <c r="AW21" s="102"/>
-      <c r="AX21" s="102"/>
-      <c r="AY21" s="102"/>
-      <c r="AZ21" s="102"/>
-      <c r="BA21" s="102"/>
-      <c r="BB21" s="102"/>
-      <c r="BC21" s="102"/>
-      <c r="BD21" s="102"/>
-      <c r="BE21" s="102"/>
-      <c r="BF21" s="102"/>
-      <c r="BG21" s="102"/>
-      <c r="BH21" s="102"/>
-      <c r="BI21" s="102"/>
-      <c r="BJ21" s="102"/>
-      <c r="BK21" s="102"/>
-      <c r="BL21" s="102"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+      <c r="AX21" s="114"/>
+      <c r="AY21" s="114"/>
+      <c r="AZ21" s="114"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="114"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
+      <c r="BI21" s="114"/>
+      <c r="BJ21" s="114"/>
+      <c r="BK21" s="114"/>
+      <c r="BL21" s="114"/>
     </row>
     <row r="22" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A22" s="24"/>
@@ -4596,29 +4601,29 @@
       <c r="AM22" s="21"/>
       <c r="AN22" s="21"/>
       <c r="AO22" s="21"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="102"/>
-      <c r="AT22" s="102"/>
-      <c r="AU22" s="102"/>
-      <c r="AV22" s="102"/>
-      <c r="AW22" s="102"/>
-      <c r="AX22" s="102"/>
-      <c r="AY22" s="102"/>
-      <c r="AZ22" s="102"/>
-      <c r="BA22" s="102"/>
-      <c r="BB22" s="102"/>
-      <c r="BC22" s="102"/>
-      <c r="BD22" s="102"/>
-      <c r="BE22" s="102"/>
-      <c r="BF22" s="102"/>
-      <c r="BG22" s="102"/>
-      <c r="BH22" s="102"/>
-      <c r="BI22" s="102"/>
-      <c r="BJ22" s="102"/>
-      <c r="BK22" s="102"/>
-      <c r="BL22" s="102"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="114"/>
+      <c r="AY22" s="114"/>
+      <c r="AZ22" s="114"/>
+      <c r="BA22" s="114"/>
+      <c r="BB22" s="114"/>
+      <c r="BC22" s="114"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="114"/>
+      <c r="BF22" s="114"/>
+      <c r="BG22" s="114"/>
+      <c r="BH22" s="114"/>
+      <c r="BI22" s="114"/>
+      <c r="BJ22" s="114"/>
+      <c r="BK22" s="114"/>
+      <c r="BL22" s="114"/>
     </row>
     <row r="23" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A23" s="24"/>
@@ -4648,8 +4653,8 @@
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
@@ -4674,29 +4679,29 @@
       <c r="AM23" s="21"/>
       <c r="AN23" s="21"/>
       <c r="AO23" s="21"/>
-      <c r="AP23" s="102"/>
-      <c r="AQ23" s="102"/>
-      <c r="AR23" s="102"/>
-      <c r="AS23" s="102"/>
-      <c r="AT23" s="102"/>
-      <c r="AU23" s="102"/>
-      <c r="AV23" s="102"/>
-      <c r="AW23" s="102"/>
-      <c r="AX23" s="102"/>
-      <c r="AY23" s="102"/>
-      <c r="AZ23" s="102"/>
-      <c r="BA23" s="102"/>
-      <c r="BB23" s="102"/>
-      <c r="BC23" s="102"/>
-      <c r="BD23" s="102"/>
-      <c r="BE23" s="102"/>
-      <c r="BF23" s="102"/>
-      <c r="BG23" s="102"/>
-      <c r="BH23" s="102"/>
-      <c r="BI23" s="102"/>
-      <c r="BJ23" s="102"/>
-      <c r="BK23" s="102"/>
-      <c r="BL23" s="102"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
+      <c r="AX23" s="114"/>
+      <c r="AY23" s="114"/>
+      <c r="AZ23" s="114"/>
+      <c r="BA23" s="114"/>
+      <c r="BB23" s="114"/>
+      <c r="BC23" s="114"/>
+      <c r="BD23" s="114"/>
+      <c r="BE23" s="114"/>
+      <c r="BF23" s="114"/>
+      <c r="BG23" s="114"/>
+      <c r="BH23" s="114"/>
+      <c r="BI23" s="114"/>
+      <c r="BJ23" s="114"/>
+      <c r="BK23" s="114"/>
+      <c r="BL23" s="114"/>
     </row>
     <row r="24" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A24" s="24"/>
@@ -4724,8 +4729,8 @@
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="103"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
@@ -4750,29 +4755,29 @@
       <c r="AM24" s="33"/>
       <c r="AN24" s="33"/>
       <c r="AO24" s="33"/>
-      <c r="AP24" s="102"/>
-      <c r="AQ24" s="102"/>
-      <c r="AR24" s="102"/>
-      <c r="AS24" s="102"/>
-      <c r="AT24" s="102"/>
-      <c r="AU24" s="102"/>
-      <c r="AV24" s="102"/>
-      <c r="AW24" s="102"/>
-      <c r="AX24" s="102"/>
-      <c r="AY24" s="102"/>
-      <c r="AZ24" s="102"/>
-      <c r="BA24" s="102"/>
-      <c r="BB24" s="102"/>
-      <c r="BC24" s="102"/>
-      <c r="BD24" s="102"/>
-      <c r="BE24" s="102"/>
-      <c r="BF24" s="102"/>
-      <c r="BG24" s="102"/>
-      <c r="BH24" s="102"/>
-      <c r="BI24" s="102"/>
-      <c r="BJ24" s="102"/>
-      <c r="BK24" s="102"/>
-      <c r="BL24" s="102"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
+      <c r="AX24" s="114"/>
+      <c r="AY24" s="114"/>
+      <c r="AZ24" s="114"/>
+      <c r="BA24" s="114"/>
+      <c r="BB24" s="114"/>
+      <c r="BC24" s="114"/>
+      <c r="BD24" s="114"/>
+      <c r="BE24" s="114"/>
+      <c r="BF24" s="114"/>
+      <c r="BG24" s="114"/>
+      <c r="BH24" s="114"/>
+      <c r="BI24" s="114"/>
+      <c r="BJ24" s="114"/>
+      <c r="BK24" s="114"/>
+      <c r="BL24" s="114"/>
     </row>
     <row r="25" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A25" s="27"/>
@@ -4819,29 +4824,29 @@
       <c r="AM25" s="33"/>
       <c r="AN25" s="33"/>
       <c r="AO25" s="33"/>
-      <c r="AP25" s="102"/>
-      <c r="AQ25" s="102"/>
-      <c r="AR25" s="102"/>
-      <c r="AS25" s="102"/>
-      <c r="AT25" s="102"/>
-      <c r="AU25" s="102"/>
-      <c r="AV25" s="102"/>
-      <c r="AW25" s="102"/>
-      <c r="AX25" s="102"/>
-      <c r="AY25" s="102"/>
-      <c r="AZ25" s="102"/>
-      <c r="BA25" s="102"/>
-      <c r="BB25" s="102"/>
-      <c r="BC25" s="102"/>
-      <c r="BD25" s="102"/>
-      <c r="BE25" s="102"/>
-      <c r="BF25" s="102"/>
-      <c r="BG25" s="102"/>
-      <c r="BH25" s="102"/>
-      <c r="BI25" s="102"/>
-      <c r="BJ25" s="102"/>
-      <c r="BK25" s="102"/>
-      <c r="BL25" s="102"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="114"/>
+      <c r="AR25" s="114"/>
+      <c r="AS25" s="114"/>
+      <c r="AT25" s="114"/>
+      <c r="AU25" s="114"/>
+      <c r="AV25" s="114"/>
+      <c r="AW25" s="114"/>
+      <c r="AX25" s="114"/>
+      <c r="AY25" s="114"/>
+      <c r="AZ25" s="114"/>
+      <c r="BA25" s="114"/>
+      <c r="BB25" s="114"/>
+      <c r="BC25" s="114"/>
+      <c r="BD25" s="114"/>
+      <c r="BE25" s="114"/>
+      <c r="BF25" s="114"/>
+      <c r="BG25" s="114"/>
+      <c r="BH25" s="114"/>
+      <c r="BI25" s="114"/>
+      <c r="BJ25" s="114"/>
+      <c r="BK25" s="114"/>
+      <c r="BL25" s="114"/>
     </row>
     <row r="26" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A26" s="27"/>
@@ -4875,8 +4880,8 @@
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="103"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -4899,29 +4904,29 @@
       <c r="AM26" s="33"/>
       <c r="AN26" s="33"/>
       <c r="AO26" s="33"/>
-      <c r="AP26" s="102"/>
-      <c r="AQ26" s="102"/>
-      <c r="AR26" s="102"/>
-      <c r="AS26" s="102"/>
-      <c r="AT26" s="102"/>
-      <c r="AU26" s="102"/>
-      <c r="AV26" s="102"/>
-      <c r="AW26" s="102"/>
-      <c r="AX26" s="102"/>
-      <c r="AY26" s="102"/>
-      <c r="AZ26" s="102"/>
-      <c r="BA26" s="102"/>
-      <c r="BB26" s="102"/>
-      <c r="BC26" s="102"/>
-      <c r="BD26" s="102"/>
-      <c r="BE26" s="102"/>
-      <c r="BF26" s="102"/>
-      <c r="BG26" s="102"/>
-      <c r="BH26" s="102"/>
-      <c r="BI26" s="102"/>
-      <c r="BJ26" s="102"/>
-      <c r="BK26" s="102"/>
-      <c r="BL26" s="102"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="114"/>
+      <c r="AU26" s="114"/>
+      <c r="AV26" s="114"/>
+      <c r="AW26" s="114"/>
+      <c r="AX26" s="114"/>
+      <c r="AY26" s="114"/>
+      <c r="AZ26" s="114"/>
+      <c r="BA26" s="114"/>
+      <c r="BB26" s="114"/>
+      <c r="BC26" s="114"/>
+      <c r="BD26" s="114"/>
+      <c r="BE26" s="114"/>
+      <c r="BF26" s="114"/>
+      <c r="BG26" s="114"/>
+      <c r="BH26" s="114"/>
+      <c r="BI26" s="114"/>
+      <c r="BJ26" s="114"/>
+      <c r="BK26" s="114"/>
+      <c r="BL26" s="114"/>
     </row>
     <row r="27" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A27" s="27"/>
@@ -4953,8 +4958,8 @@
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="103"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
@@ -4977,29 +4982,29 @@
       <c r="AM27" s="33"/>
       <c r="AN27" s="33"/>
       <c r="AO27" s="33"/>
-      <c r="AP27" s="102"/>
-      <c r="AQ27" s="102"/>
-      <c r="AR27" s="102"/>
-      <c r="AS27" s="102"/>
-      <c r="AT27" s="102"/>
-      <c r="AU27" s="102"/>
-      <c r="AV27" s="102"/>
-      <c r="AW27" s="102"/>
-      <c r="AX27" s="102"/>
-      <c r="AY27" s="102"/>
-      <c r="AZ27" s="102"/>
-      <c r="BA27" s="102"/>
-      <c r="BB27" s="102"/>
-      <c r="BC27" s="102"/>
-      <c r="BD27" s="102"/>
-      <c r="BE27" s="102"/>
-      <c r="BF27" s="102"/>
-      <c r="BG27" s="102"/>
-      <c r="BH27" s="102"/>
-      <c r="BI27" s="102"/>
-      <c r="BJ27" s="102"/>
-      <c r="BK27" s="102"/>
-      <c r="BL27" s="102"/>
+      <c r="AP27" s="114"/>
+      <c r="AQ27" s="114"/>
+      <c r="AR27" s="114"/>
+      <c r="AS27" s="114"/>
+      <c r="AT27" s="114"/>
+      <c r="AU27" s="114"/>
+      <c r="AV27" s="114"/>
+      <c r="AW27" s="114"/>
+      <c r="AX27" s="114"/>
+      <c r="AY27" s="114"/>
+      <c r="AZ27" s="114"/>
+      <c r="BA27" s="114"/>
+      <c r="BB27" s="114"/>
+      <c r="BC27" s="114"/>
+      <c r="BD27" s="114"/>
+      <c r="BE27" s="114"/>
+      <c r="BF27" s="114"/>
+      <c r="BG27" s="114"/>
+      <c r="BH27" s="114"/>
+      <c r="BI27" s="114"/>
+      <c r="BJ27" s="114"/>
+      <c r="BK27" s="114"/>
+      <c r="BL27" s="114"/>
     </row>
     <row r="28" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A28" s="27"/>
@@ -5031,8 +5036,8 @@
       <c r="O28" s="33"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="101"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="103"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
       <c r="V28" s="33"/>
@@ -5055,29 +5060,29 @@
       <c r="AM28" s="33"/>
       <c r="AN28" s="33"/>
       <c r="AO28" s="33"/>
-      <c r="AP28" s="102"/>
-      <c r="AQ28" s="102"/>
-      <c r="AR28" s="102"/>
-      <c r="AS28" s="102"/>
-      <c r="AT28" s="102"/>
-      <c r="AU28" s="102"/>
-      <c r="AV28" s="102"/>
-      <c r="AW28" s="102"/>
-      <c r="AX28" s="102"/>
-      <c r="AY28" s="102"/>
-      <c r="AZ28" s="102"/>
-      <c r="BA28" s="102"/>
-      <c r="BB28" s="102"/>
-      <c r="BC28" s="102"/>
-      <c r="BD28" s="102"/>
-      <c r="BE28" s="102"/>
-      <c r="BF28" s="102"/>
-      <c r="BG28" s="102"/>
-      <c r="BH28" s="102"/>
-      <c r="BI28" s="102"/>
-      <c r="BJ28" s="102"/>
-      <c r="BK28" s="102"/>
-      <c r="BL28" s="102"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
+      <c r="AT28" s="114"/>
+      <c r="AU28" s="114"/>
+      <c r="AV28" s="114"/>
+      <c r="AW28" s="114"/>
+      <c r="AX28" s="114"/>
+      <c r="AY28" s="114"/>
+      <c r="AZ28" s="114"/>
+      <c r="BA28" s="114"/>
+      <c r="BB28" s="114"/>
+      <c r="BC28" s="114"/>
+      <c r="BD28" s="114"/>
+      <c r="BE28" s="114"/>
+      <c r="BF28" s="114"/>
+      <c r="BG28" s="114"/>
+      <c r="BH28" s="114"/>
+      <c r="BI28" s="114"/>
+      <c r="BJ28" s="114"/>
+      <c r="BK28" s="114"/>
+      <c r="BL28" s="114"/>
     </row>
     <row r="29" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A29" s="27"/>
@@ -5109,8 +5114,8 @@
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="33"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="101"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="103"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
       <c r="V29" s="33"/>
@@ -5133,29 +5138,29 @@
       <c r="AM29" s="33"/>
       <c r="AN29" s="33"/>
       <c r="AO29" s="33"/>
-      <c r="AP29" s="102"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="102"/>
-      <c r="AS29" s="102"/>
-      <c r="AT29" s="102"/>
-      <c r="AU29" s="102"/>
-      <c r="AV29" s="102"/>
-      <c r="AW29" s="102"/>
-      <c r="AX29" s="102"/>
-      <c r="AY29" s="102"/>
-      <c r="AZ29" s="102"/>
-      <c r="BA29" s="102"/>
-      <c r="BB29" s="102"/>
-      <c r="BC29" s="102"/>
-      <c r="BD29" s="102"/>
-      <c r="BE29" s="102"/>
-      <c r="BF29" s="102"/>
-      <c r="BG29" s="102"/>
-      <c r="BH29" s="102"/>
-      <c r="BI29" s="102"/>
-      <c r="BJ29" s="102"/>
-      <c r="BK29" s="102"/>
-      <c r="BL29" s="102"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
+      <c r="AX29" s="114"/>
+      <c r="AY29" s="114"/>
+      <c r="AZ29" s="114"/>
+      <c r="BA29" s="114"/>
+      <c r="BB29" s="114"/>
+      <c r="BC29" s="114"/>
+      <c r="BD29" s="114"/>
+      <c r="BE29" s="114"/>
+      <c r="BF29" s="114"/>
+      <c r="BG29" s="114"/>
+      <c r="BH29" s="114"/>
+      <c r="BI29" s="114"/>
+      <c r="BJ29" s="114"/>
+      <c r="BK29" s="114"/>
+      <c r="BL29" s="114"/>
     </row>
     <row r="30" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A30" s="27"/>
@@ -5187,8 +5192,8 @@
       <c r="O30" s="33"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="101"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="103"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
       <c r="V30" s="33"/>
@@ -5211,29 +5216,29 @@
       <c r="AM30" s="33"/>
       <c r="AN30" s="33"/>
       <c r="AO30" s="33"/>
-      <c r="AP30" s="102"/>
-      <c r="AQ30" s="102"/>
-      <c r="AR30" s="102"/>
-      <c r="AS30" s="102"/>
-      <c r="AT30" s="102"/>
-      <c r="AU30" s="102"/>
-      <c r="AV30" s="102"/>
-      <c r="AW30" s="102"/>
-      <c r="AX30" s="102"/>
-      <c r="AY30" s="102"/>
-      <c r="AZ30" s="102"/>
-      <c r="BA30" s="102"/>
-      <c r="BB30" s="102"/>
-      <c r="BC30" s="102"/>
-      <c r="BD30" s="102"/>
-      <c r="BE30" s="102"/>
-      <c r="BF30" s="102"/>
-      <c r="BG30" s="102"/>
-      <c r="BH30" s="102"/>
-      <c r="BI30" s="102"/>
-      <c r="BJ30" s="102"/>
-      <c r="BK30" s="102"/>
-      <c r="BL30" s="102"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
+      <c r="AX30" s="114"/>
+      <c r="AY30" s="114"/>
+      <c r="AZ30" s="114"/>
+      <c r="BA30" s="114"/>
+      <c r="BB30" s="114"/>
+      <c r="BC30" s="114"/>
+      <c r="BD30" s="114"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="114"/>
+      <c r="BG30" s="114"/>
+      <c r="BH30" s="114"/>
+      <c r="BI30" s="114"/>
+      <c r="BJ30" s="114"/>
+      <c r="BK30" s="114"/>
+      <c r="BL30" s="114"/>
     </row>
     <row r="31" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A31" s="27"/>
@@ -5265,8 +5270,8 @@
       <c r="O31" s="33"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="101"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="103"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
       <c r="V31" s="33"/>
@@ -5289,29 +5294,29 @@
       <c r="AM31" s="33"/>
       <c r="AN31" s="33"/>
       <c r="AO31" s="33"/>
-      <c r="AP31" s="102"/>
-      <c r="AQ31" s="102"/>
-      <c r="AR31" s="102"/>
-      <c r="AS31" s="102"/>
-      <c r="AT31" s="102"/>
-      <c r="AU31" s="102"/>
-      <c r="AV31" s="102"/>
-      <c r="AW31" s="102"/>
-      <c r="AX31" s="102"/>
-      <c r="AY31" s="102"/>
-      <c r="AZ31" s="102"/>
-      <c r="BA31" s="102"/>
-      <c r="BB31" s="102"/>
-      <c r="BC31" s="102"/>
-      <c r="BD31" s="102"/>
-      <c r="BE31" s="102"/>
-      <c r="BF31" s="102"/>
-      <c r="BG31" s="102"/>
-      <c r="BH31" s="102"/>
-      <c r="BI31" s="102"/>
-      <c r="BJ31" s="102"/>
-      <c r="BK31" s="102"/>
-      <c r="BL31" s="102"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
+      <c r="AX31" s="114"/>
+      <c r="AY31" s="114"/>
+      <c r="AZ31" s="114"/>
+      <c r="BA31" s="114"/>
+      <c r="BB31" s="114"/>
+      <c r="BC31" s="114"/>
+      <c r="BD31" s="114"/>
+      <c r="BE31" s="114"/>
+      <c r="BF31" s="114"/>
+      <c r="BG31" s="114"/>
+      <c r="BH31" s="114"/>
+      <c r="BI31" s="114"/>
+      <c r="BJ31" s="114"/>
+      <c r="BK31" s="114"/>
+      <c r="BL31" s="114"/>
     </row>
     <row r="32" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A32" s="27"/>
@@ -5343,8 +5348,8 @@
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="101"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="103"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
       <c r="V32" s="33"/>
@@ -5367,29 +5372,29 @@
       <c r="AM32" s="33"/>
       <c r="AN32" s="33"/>
       <c r="AO32" s="33"/>
-      <c r="AP32" s="102"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="102"/>
-      <c r="AT32" s="102"/>
-      <c r="AU32" s="102"/>
-      <c r="AV32" s="102"/>
-      <c r="AW32" s="102"/>
-      <c r="AX32" s="102"/>
-      <c r="AY32" s="102"/>
-      <c r="AZ32" s="102"/>
-      <c r="BA32" s="102"/>
-      <c r="BB32" s="102"/>
-      <c r="BC32" s="102"/>
-      <c r="BD32" s="102"/>
-      <c r="BE32" s="102"/>
-      <c r="BF32" s="102"/>
-      <c r="BG32" s="102"/>
-      <c r="BH32" s="102"/>
-      <c r="BI32" s="102"/>
-      <c r="BJ32" s="102"/>
-      <c r="BK32" s="102"/>
-      <c r="BL32" s="102"/>
+      <c r="AP32" s="114"/>
+      <c r="AQ32" s="114"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
+      <c r="AX32" s="114"/>
+      <c r="AY32" s="114"/>
+      <c r="AZ32" s="114"/>
+      <c r="BA32" s="114"/>
+      <c r="BB32" s="114"/>
+      <c r="BC32" s="114"/>
+      <c r="BD32" s="114"/>
+      <c r="BE32" s="114"/>
+      <c r="BF32" s="114"/>
+      <c r="BG32" s="114"/>
+      <c r="BH32" s="114"/>
+      <c r="BI32" s="114"/>
+      <c r="BJ32" s="114"/>
+      <c r="BK32" s="114"/>
+      <c r="BL32" s="114"/>
     </row>
     <row r="33" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A33" s="27"/>
@@ -5421,8 +5426,8 @@
       <c r="O33" s="33"/>
       <c r="P33" s="33"/>
       <c r="Q33" s="33"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="101"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="103"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
       <c r="V33" s="33"/>
@@ -5445,29 +5450,29 @@
       <c r="AM33" s="33"/>
       <c r="AN33" s="33"/>
       <c r="AO33" s="33"/>
-      <c r="AP33" s="102"/>
-      <c r="AQ33" s="102"/>
-      <c r="AR33" s="102"/>
-      <c r="AS33" s="102"/>
-      <c r="AT33" s="102"/>
-      <c r="AU33" s="102"/>
-      <c r="AV33" s="102"/>
-      <c r="AW33" s="102"/>
-      <c r="AX33" s="102"/>
-      <c r="AY33" s="102"/>
-      <c r="AZ33" s="102"/>
-      <c r="BA33" s="102"/>
-      <c r="BB33" s="102"/>
-      <c r="BC33" s="102"/>
-      <c r="BD33" s="102"/>
-      <c r="BE33" s="102"/>
-      <c r="BF33" s="102"/>
-      <c r="BG33" s="102"/>
-      <c r="BH33" s="102"/>
-      <c r="BI33" s="102"/>
-      <c r="BJ33" s="102"/>
-      <c r="BK33" s="102"/>
-      <c r="BL33" s="102"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="114"/>
+      <c r="AY33" s="114"/>
+      <c r="AZ33" s="114"/>
+      <c r="BA33" s="114"/>
+      <c r="BB33" s="114"/>
+      <c r="BC33" s="114"/>
+      <c r="BD33" s="114"/>
+      <c r="BE33" s="114"/>
+      <c r="BF33" s="114"/>
+      <c r="BG33" s="114"/>
+      <c r="BH33" s="114"/>
+      <c r="BI33" s="114"/>
+      <c r="BJ33" s="114"/>
+      <c r="BK33" s="114"/>
+      <c r="BL33" s="114"/>
     </row>
     <row r="34" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A34" s="27"/>
@@ -5499,8 +5504,8 @@
       <c r="O34" s="33"/>
       <c r="P34" s="33"/>
       <c r="Q34" s="33"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="101"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="103"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
       <c r="V34" s="33"/>
@@ -5523,29 +5528,29 @@
       <c r="AM34" s="33"/>
       <c r="AN34" s="33"/>
       <c r="AO34" s="33"/>
-      <c r="AP34" s="102"/>
-      <c r="AQ34" s="102"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="102"/>
-      <c r="AT34" s="102"/>
-      <c r="AU34" s="102"/>
-      <c r="AV34" s="102"/>
-      <c r="AW34" s="102"/>
-      <c r="AX34" s="102"/>
-      <c r="AY34" s="102"/>
-      <c r="AZ34" s="102"/>
-      <c r="BA34" s="102"/>
-      <c r="BB34" s="102"/>
-      <c r="BC34" s="102"/>
-      <c r="BD34" s="102"/>
-      <c r="BE34" s="102"/>
-      <c r="BF34" s="102"/>
-      <c r="BG34" s="102"/>
-      <c r="BH34" s="102"/>
-      <c r="BI34" s="102"/>
-      <c r="BJ34" s="102"/>
-      <c r="BK34" s="102"/>
-      <c r="BL34" s="102"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
+      <c r="AX34" s="114"/>
+      <c r="AY34" s="114"/>
+      <c r="AZ34" s="114"/>
+      <c r="BA34" s="114"/>
+      <c r="BB34" s="114"/>
+      <c r="BC34" s="114"/>
+      <c r="BD34" s="114"/>
+      <c r="BE34" s="114"/>
+      <c r="BF34" s="114"/>
+      <c r="BG34" s="114"/>
+      <c r="BH34" s="114"/>
+      <c r="BI34" s="114"/>
+      <c r="BJ34" s="114"/>
+      <c r="BK34" s="114"/>
+      <c r="BL34" s="114"/>
     </row>
     <row r="35" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A35" s="27"/>
@@ -5577,8 +5582,8 @@
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="101"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="103"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
       <c r="V35" s="33"/>
@@ -5601,29 +5606,29 @@
       <c r="AM35" s="33"/>
       <c r="AN35" s="33"/>
       <c r="AO35" s="33"/>
-      <c r="AP35" s="102"/>
-      <c r="AQ35" s="102"/>
-      <c r="AR35" s="102"/>
-      <c r="AS35" s="102"/>
-      <c r="AT35" s="102"/>
-      <c r="AU35" s="102"/>
-      <c r="AV35" s="102"/>
-      <c r="AW35" s="102"/>
-      <c r="AX35" s="102"/>
-      <c r="AY35" s="102"/>
-      <c r="AZ35" s="102"/>
-      <c r="BA35" s="102"/>
-      <c r="BB35" s="102"/>
-      <c r="BC35" s="102"/>
-      <c r="BD35" s="102"/>
-      <c r="BE35" s="102"/>
-      <c r="BF35" s="102"/>
-      <c r="BG35" s="102"/>
-      <c r="BH35" s="102"/>
-      <c r="BI35" s="102"/>
-      <c r="BJ35" s="102"/>
-      <c r="BK35" s="102"/>
-      <c r="BL35" s="102"/>
+      <c r="AP35" s="114"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="114"/>
+      <c r="AW35" s="114"/>
+      <c r="AX35" s="114"/>
+      <c r="AY35" s="114"/>
+      <c r="AZ35" s="114"/>
+      <c r="BA35" s="114"/>
+      <c r="BB35" s="114"/>
+      <c r="BC35" s="114"/>
+      <c r="BD35" s="114"/>
+      <c r="BE35" s="114"/>
+      <c r="BF35" s="114"/>
+      <c r="BG35" s="114"/>
+      <c r="BH35" s="114"/>
+      <c r="BI35" s="114"/>
+      <c r="BJ35" s="114"/>
+      <c r="BK35" s="114"/>
+      <c r="BL35" s="114"/>
     </row>
     <row r="36" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A36" s="27"/>
@@ -5655,8 +5660,8 @@
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="101"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="103"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
       <c r="V36" s="33"/>
@@ -5681,29 +5686,29 @@
       <c r="AM36" s="33"/>
       <c r="AN36" s="33"/>
       <c r="AO36" s="33"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="102"/>
-      <c r="AT36" s="102"/>
-      <c r="AU36" s="102"/>
-      <c r="AV36" s="102"/>
-      <c r="AW36" s="102"/>
-      <c r="AX36" s="102"/>
-      <c r="AY36" s="102"/>
-      <c r="AZ36" s="102"/>
-      <c r="BA36" s="102"/>
-      <c r="BB36" s="102"/>
-      <c r="BC36" s="102"/>
-      <c r="BD36" s="102"/>
-      <c r="BE36" s="102"/>
-      <c r="BF36" s="102"/>
-      <c r="BG36" s="102"/>
-      <c r="BH36" s="102"/>
-      <c r="BI36" s="102"/>
-      <c r="BJ36" s="102"/>
-      <c r="BK36" s="102"/>
-      <c r="BL36" s="102"/>
+      <c r="AP36" s="114"/>
+      <c r="AQ36" s="114"/>
+      <c r="AR36" s="114"/>
+      <c r="AS36" s="114"/>
+      <c r="AT36" s="114"/>
+      <c r="AU36" s="114"/>
+      <c r="AV36" s="114"/>
+      <c r="AW36" s="114"/>
+      <c r="AX36" s="114"/>
+      <c r="AY36" s="114"/>
+      <c r="AZ36" s="114"/>
+      <c r="BA36" s="114"/>
+      <c r="BB36" s="114"/>
+      <c r="BC36" s="114"/>
+      <c r="BD36" s="114"/>
+      <c r="BE36" s="114"/>
+      <c r="BF36" s="114"/>
+      <c r="BG36" s="114"/>
+      <c r="BH36" s="114"/>
+      <c r="BI36" s="114"/>
+      <c r="BJ36" s="114"/>
+      <c r="BK36" s="114"/>
+      <c r="BL36" s="114"/>
     </row>
     <row r="37" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A37" s="27"/>
@@ -5735,8 +5740,8 @@
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="33"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="101"/>
+      <c r="R37" s="102"/>
+      <c r="S37" s="103"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
@@ -5759,29 +5764,29 @@
       <c r="AM37" s="33"/>
       <c r="AN37" s="33"/>
       <c r="AO37" s="33"/>
-      <c r="AP37" s="102"/>
-      <c r="AQ37" s="102"/>
-      <c r="AR37" s="102"/>
-      <c r="AS37" s="102"/>
-      <c r="AT37" s="102"/>
-      <c r="AU37" s="102"/>
-      <c r="AV37" s="102"/>
-      <c r="AW37" s="102"/>
-      <c r="AX37" s="102"/>
-      <c r="AY37" s="102"/>
-      <c r="AZ37" s="102"/>
-      <c r="BA37" s="102"/>
-      <c r="BB37" s="102"/>
-      <c r="BC37" s="102"/>
-      <c r="BD37" s="102"/>
-      <c r="BE37" s="102"/>
-      <c r="BF37" s="102"/>
-      <c r="BG37" s="102"/>
-      <c r="BH37" s="102"/>
-      <c r="BI37" s="102"/>
-      <c r="BJ37" s="102"/>
-      <c r="BK37" s="102"/>
-      <c r="BL37" s="102"/>
+      <c r="AP37" s="114"/>
+      <c r="AQ37" s="114"/>
+      <c r="AR37" s="114"/>
+      <c r="AS37" s="114"/>
+      <c r="AT37" s="114"/>
+      <c r="AU37" s="114"/>
+      <c r="AV37" s="114"/>
+      <c r="AW37" s="114"/>
+      <c r="AX37" s="114"/>
+      <c r="AY37" s="114"/>
+      <c r="AZ37" s="114"/>
+      <c r="BA37" s="114"/>
+      <c r="BB37" s="114"/>
+      <c r="BC37" s="114"/>
+      <c r="BD37" s="114"/>
+      <c r="BE37" s="114"/>
+      <c r="BF37" s="114"/>
+      <c r="BG37" s="114"/>
+      <c r="BH37" s="114"/>
+      <c r="BI37" s="114"/>
+      <c r="BJ37" s="114"/>
+      <c r="BK37" s="114"/>
+      <c r="BL37" s="114"/>
     </row>
     <row r="38" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A38" s="27"/>
@@ -5813,8 +5818,8 @@
       <c r="O38" s="33"/>
       <c r="P38" s="33"/>
       <c r="Q38" s="33"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="101"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="103"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
       <c r="V38" s="33"/>
@@ -5837,29 +5842,29 @@
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="33"/>
-      <c r="AP38" s="102"/>
-      <c r="AQ38" s="102"/>
-      <c r="AR38" s="102"/>
-      <c r="AS38" s="102"/>
-      <c r="AT38" s="102"/>
-      <c r="AU38" s="102"/>
-      <c r="AV38" s="102"/>
-      <c r="AW38" s="102"/>
-      <c r="AX38" s="102"/>
-      <c r="AY38" s="102"/>
-      <c r="AZ38" s="102"/>
-      <c r="BA38" s="102"/>
-      <c r="BB38" s="102"/>
-      <c r="BC38" s="102"/>
-      <c r="BD38" s="102"/>
-      <c r="BE38" s="102"/>
-      <c r="BF38" s="102"/>
-      <c r="BG38" s="102"/>
-      <c r="BH38" s="102"/>
-      <c r="BI38" s="102"/>
-      <c r="BJ38" s="102"/>
-      <c r="BK38" s="102"/>
-      <c r="BL38" s="102"/>
+      <c r="AP38" s="114"/>
+      <c r="AQ38" s="114"/>
+      <c r="AR38" s="114"/>
+      <c r="AS38" s="114"/>
+      <c r="AT38" s="114"/>
+      <c r="AU38" s="114"/>
+      <c r="AV38" s="114"/>
+      <c r="AW38" s="114"/>
+      <c r="AX38" s="114"/>
+      <c r="AY38" s="114"/>
+      <c r="AZ38" s="114"/>
+      <c r="BA38" s="114"/>
+      <c r="BB38" s="114"/>
+      <c r="BC38" s="114"/>
+      <c r="BD38" s="114"/>
+      <c r="BE38" s="114"/>
+      <c r="BF38" s="114"/>
+      <c r="BG38" s="114"/>
+      <c r="BH38" s="114"/>
+      <c r="BI38" s="114"/>
+      <c r="BJ38" s="114"/>
+      <c r="BK38" s="114"/>
+      <c r="BL38" s="114"/>
     </row>
     <row r="39" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A39" s="27"/>
@@ -5891,8 +5896,8 @@
       <c r="O39" s="33"/>
       <c r="P39" s="33"/>
       <c r="Q39" s="33"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="101"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="103"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
       <c r="V39" s="33"/>
@@ -5915,29 +5920,29 @@
       <c r="AM39" s="33"/>
       <c r="AN39" s="33"/>
       <c r="AO39" s="33"/>
-      <c r="AP39" s="102"/>
-      <c r="AQ39" s="102"/>
-      <c r="AR39" s="102"/>
-      <c r="AS39" s="102"/>
-      <c r="AT39" s="102"/>
-      <c r="AU39" s="102"/>
-      <c r="AV39" s="102"/>
-      <c r="AW39" s="102"/>
-      <c r="AX39" s="102"/>
-      <c r="AY39" s="102"/>
-      <c r="AZ39" s="102"/>
-      <c r="BA39" s="102"/>
-      <c r="BB39" s="102"/>
-      <c r="BC39" s="102"/>
-      <c r="BD39" s="102"/>
-      <c r="BE39" s="102"/>
-      <c r="BF39" s="102"/>
-      <c r="BG39" s="102"/>
-      <c r="BH39" s="102"/>
-      <c r="BI39" s="102"/>
-      <c r="BJ39" s="102"/>
-      <c r="BK39" s="102"/>
-      <c r="BL39" s="102"/>
+      <c r="AP39" s="114"/>
+      <c r="AQ39" s="114"/>
+      <c r="AR39" s="114"/>
+      <c r="AS39" s="114"/>
+      <c r="AT39" s="114"/>
+      <c r="AU39" s="114"/>
+      <c r="AV39" s="114"/>
+      <c r="AW39" s="114"/>
+      <c r="AX39" s="114"/>
+      <c r="AY39" s="114"/>
+      <c r="AZ39" s="114"/>
+      <c r="BA39" s="114"/>
+      <c r="BB39" s="114"/>
+      <c r="BC39" s="114"/>
+      <c r="BD39" s="114"/>
+      <c r="BE39" s="114"/>
+      <c r="BF39" s="114"/>
+      <c r="BG39" s="114"/>
+      <c r="BH39" s="114"/>
+      <c r="BI39" s="114"/>
+      <c r="BJ39" s="114"/>
+      <c r="BK39" s="114"/>
+      <c r="BL39" s="114"/>
     </row>
     <row r="40" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A40" s="27"/>
@@ -5969,8 +5974,8 @@
       <c r="O40" s="33"/>
       <c r="P40" s="33"/>
       <c r="Q40" s="33"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="101"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="103"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
@@ -5993,29 +5998,29 @@
       <c r="AM40" s="33"/>
       <c r="AN40" s="33"/>
       <c r="AO40" s="33"/>
-      <c r="AP40" s="102"/>
-      <c r="AQ40" s="102"/>
-      <c r="AR40" s="102"/>
-      <c r="AS40" s="102"/>
-      <c r="AT40" s="102"/>
-      <c r="AU40" s="102"/>
-      <c r="AV40" s="102"/>
-      <c r="AW40" s="102"/>
-      <c r="AX40" s="102"/>
-      <c r="AY40" s="102"/>
-      <c r="AZ40" s="102"/>
-      <c r="BA40" s="102"/>
-      <c r="BB40" s="102"/>
-      <c r="BC40" s="102"/>
-      <c r="BD40" s="102"/>
-      <c r="BE40" s="102"/>
-      <c r="BF40" s="102"/>
-      <c r="BG40" s="102"/>
-      <c r="BH40" s="102"/>
-      <c r="BI40" s="102"/>
-      <c r="BJ40" s="102"/>
-      <c r="BK40" s="102"/>
-      <c r="BL40" s="102"/>
+      <c r="AP40" s="114"/>
+      <c r="AQ40" s="114"/>
+      <c r="AR40" s="114"/>
+      <c r="AS40" s="114"/>
+      <c r="AT40" s="114"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="114"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="114"/>
+      <c r="AY40" s="114"/>
+      <c r="AZ40" s="114"/>
+      <c r="BA40" s="114"/>
+      <c r="BB40" s="114"/>
+      <c r="BC40" s="114"/>
+      <c r="BD40" s="114"/>
+      <c r="BE40" s="114"/>
+      <c r="BF40" s="114"/>
+      <c r="BG40" s="114"/>
+      <c r="BH40" s="114"/>
+      <c r="BI40" s="114"/>
+      <c r="BJ40" s="114"/>
+      <c r="BK40" s="114"/>
+      <c r="BL40" s="114"/>
     </row>
     <row r="41" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A41" s="27"/>
@@ -6071,11 +6076,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R41" s="100" t="str">
+      <c r="R41" s="102" t="str">
         <f>IF(AND($C42="Goal",R$5&gt;=$G42,R$5&lt;=$G42+$H42-1),2,IF(AND($C42="Milestone",R$5&gt;=$G42,R$5&lt;=$G42+$H42-1),1,""))</f>
         <v/>
       </c>
-      <c r="S41" s="101"/>
+      <c r="S41" s="103"/>
       <c r="T41" s="33" t="str">
         <f t="shared" ref="T41:AO41" si="10">IF(AND($C42="Goal",T$5&gt;=$G42,T$5&lt;=$G42+$H42-1),2,IF(AND($C42="Milestone",T$5&gt;=$G42,T$5&lt;=$G42+$H42-1),1,""))</f>
         <v/>
@@ -6164,29 +6169,29 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AP41" s="102"/>
-      <c r="AQ41" s="102"/>
-      <c r="AR41" s="102"/>
-      <c r="AS41" s="102"/>
-      <c r="AT41" s="102"/>
-      <c r="AU41" s="102"/>
-      <c r="AV41" s="102"/>
-      <c r="AW41" s="102"/>
-      <c r="AX41" s="102"/>
-      <c r="AY41" s="102"/>
-      <c r="AZ41" s="102"/>
-      <c r="BA41" s="102"/>
-      <c r="BB41" s="102"/>
-      <c r="BC41" s="102"/>
-      <c r="BD41" s="102"/>
-      <c r="BE41" s="102"/>
-      <c r="BF41" s="102"/>
-      <c r="BG41" s="102"/>
-      <c r="BH41" s="102"/>
-      <c r="BI41" s="102"/>
-      <c r="BJ41" s="102"/>
-      <c r="BK41" s="102"/>
-      <c r="BL41" s="102"/>
+      <c r="AP41" s="114"/>
+      <c r="AQ41" s="114"/>
+      <c r="AR41" s="114"/>
+      <c r="AS41" s="114"/>
+      <c r="AT41" s="114"/>
+      <c r="AU41" s="114"/>
+      <c r="AV41" s="114"/>
+      <c r="AW41" s="114"/>
+      <c r="AX41" s="114"/>
+      <c r="AY41" s="114"/>
+      <c r="AZ41" s="114"/>
+      <c r="BA41" s="114"/>
+      <c r="BB41" s="114"/>
+      <c r="BC41" s="114"/>
+      <c r="BD41" s="114"/>
+      <c r="BE41" s="114"/>
+      <c r="BF41" s="114"/>
+      <c r="BG41" s="114"/>
+      <c r="BH41" s="114"/>
+      <c r="BI41" s="114"/>
+      <c r="BJ41" s="114"/>
+      <c r="BK41" s="114"/>
+      <c r="BL41" s="114"/>
     </row>
     <row r="42" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A42" s="27"/>
@@ -6232,29 +6237,29 @@
       <c r="AM42" s="33"/>
       <c r="AN42" s="33"/>
       <c r="AO42" s="33"/>
-      <c r="AP42" s="102"/>
-      <c r="AQ42" s="102"/>
-      <c r="AR42" s="102"/>
-      <c r="AS42" s="102"/>
-      <c r="AT42" s="102"/>
-      <c r="AU42" s="102"/>
-      <c r="AV42" s="102"/>
-      <c r="AW42" s="102"/>
-      <c r="AX42" s="102"/>
-      <c r="AY42" s="102"/>
-      <c r="AZ42" s="102"/>
-      <c r="BA42" s="102"/>
-      <c r="BB42" s="102"/>
-      <c r="BC42" s="102"/>
-      <c r="BD42" s="102"/>
-      <c r="BE42" s="102"/>
-      <c r="BF42" s="102"/>
-      <c r="BG42" s="102"/>
-      <c r="BH42" s="102"/>
-      <c r="BI42" s="102"/>
-      <c r="BJ42" s="102"/>
-      <c r="BK42" s="102"/>
-      <c r="BL42" s="102"/>
+      <c r="AP42" s="114"/>
+      <c r="AQ42" s="114"/>
+      <c r="AR42" s="114"/>
+      <c r="AS42" s="114"/>
+      <c r="AT42" s="114"/>
+      <c r="AU42" s="114"/>
+      <c r="AV42" s="114"/>
+      <c r="AW42" s="114"/>
+      <c r="AX42" s="114"/>
+      <c r="AY42" s="114"/>
+      <c r="AZ42" s="114"/>
+      <c r="BA42" s="114"/>
+      <c r="BB42" s="114"/>
+      <c r="BC42" s="114"/>
+      <c r="BD42" s="114"/>
+      <c r="BE42" s="114"/>
+      <c r="BF42" s="114"/>
+      <c r="BG42" s="114"/>
+      <c r="BH42" s="114"/>
+      <c r="BI42" s="114"/>
+      <c r="BJ42" s="114"/>
+      <c r="BK42" s="114"/>
+      <c r="BL42" s="114"/>
     </row>
     <row r="43" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A43" s="24"/>
@@ -6304,29 +6309,29 @@
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
       <c r="AO43" s="21"/>
-      <c r="AP43" s="102"/>
-      <c r="AQ43" s="102"/>
-      <c r="AR43" s="102"/>
-      <c r="AS43" s="102"/>
-      <c r="AT43" s="102"/>
-      <c r="AU43" s="102"/>
-      <c r="AV43" s="102"/>
-      <c r="AW43" s="102"/>
-      <c r="AX43" s="102"/>
-      <c r="AY43" s="102"/>
-      <c r="AZ43" s="102"/>
-      <c r="BA43" s="102"/>
-      <c r="BB43" s="102"/>
-      <c r="BC43" s="102"/>
-      <c r="BD43" s="102"/>
-      <c r="BE43" s="102"/>
-      <c r="BF43" s="102"/>
-      <c r="BG43" s="102"/>
-      <c r="BH43" s="102"/>
-      <c r="BI43" s="102"/>
-      <c r="BJ43" s="102"/>
-      <c r="BK43" s="102"/>
-      <c r="BL43" s="102"/>
+      <c r="AP43" s="114"/>
+      <c r="AQ43" s="114"/>
+      <c r="AR43" s="114"/>
+      <c r="AS43" s="114"/>
+      <c r="AT43" s="114"/>
+      <c r="AU43" s="114"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="114"/>
+      <c r="AX43" s="114"/>
+      <c r="AY43" s="114"/>
+      <c r="AZ43" s="114"/>
+      <c r="BA43" s="114"/>
+      <c r="BB43" s="114"/>
+      <c r="BC43" s="114"/>
+      <c r="BD43" s="114"/>
+      <c r="BE43" s="114"/>
+      <c r="BF43" s="114"/>
+      <c r="BG43" s="114"/>
+      <c r="BH43" s="114"/>
+      <c r="BI43" s="114"/>
+      <c r="BJ43" s="114"/>
+      <c r="BK43" s="114"/>
+      <c r="BL43" s="114"/>
     </row>
     <row r="44" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A44" s="24"/>
@@ -6376,29 +6381,29 @@
       <c r="AM44" s="21"/>
       <c r="AN44" s="21"/>
       <c r="AO44" s="21"/>
-      <c r="AP44" s="102"/>
-      <c r="AQ44" s="102"/>
-      <c r="AR44" s="102"/>
-      <c r="AS44" s="102"/>
-      <c r="AT44" s="102"/>
-      <c r="AU44" s="102"/>
-      <c r="AV44" s="102"/>
-      <c r="AW44" s="102"/>
-      <c r="AX44" s="102"/>
-      <c r="AY44" s="102"/>
-      <c r="AZ44" s="102"/>
-      <c r="BA44" s="102"/>
-      <c r="BB44" s="102"/>
-      <c r="BC44" s="102"/>
-      <c r="BD44" s="102"/>
-      <c r="BE44" s="102"/>
-      <c r="BF44" s="102"/>
-      <c r="BG44" s="102"/>
-      <c r="BH44" s="102"/>
-      <c r="BI44" s="102"/>
-      <c r="BJ44" s="102"/>
-      <c r="BK44" s="102"/>
-      <c r="BL44" s="102"/>
+      <c r="AP44" s="114"/>
+      <c r="AQ44" s="114"/>
+      <c r="AR44" s="114"/>
+      <c r="AS44" s="114"/>
+      <c r="AT44" s="114"/>
+      <c r="AU44" s="114"/>
+      <c r="AV44" s="114"/>
+      <c r="AW44" s="114"/>
+      <c r="AX44" s="114"/>
+      <c r="AY44" s="114"/>
+      <c r="AZ44" s="114"/>
+      <c r="BA44" s="114"/>
+      <c r="BB44" s="114"/>
+      <c r="BC44" s="114"/>
+      <c r="BD44" s="114"/>
+      <c r="BE44" s="114"/>
+      <c r="BF44" s="114"/>
+      <c r="BG44" s="114"/>
+      <c r="BH44" s="114"/>
+      <c r="BI44" s="114"/>
+      <c r="BJ44" s="114"/>
+      <c r="BK44" s="114"/>
+      <c r="BL44" s="114"/>
     </row>
     <row r="45" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A45" s="24"/>
@@ -6438,8 +6443,8 @@
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
       <c r="AC45" s="21"/>
-      <c r="AD45" s="100"/>
-      <c r="AE45" s="101"/>
+      <c r="AD45" s="102"/>
+      <c r="AE45" s="103"/>
       <c r="AF45" s="21"/>
       <c r="AG45" s="21"/>
       <c r="AH45" s="21"/>
@@ -6450,29 +6455,29 @@
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
       <c r="AO45" s="21"/>
-      <c r="AP45" s="102"/>
-      <c r="AQ45" s="102"/>
-      <c r="AR45" s="102"/>
-      <c r="AS45" s="102"/>
-      <c r="AT45" s="102"/>
-      <c r="AU45" s="102"/>
-      <c r="AV45" s="102"/>
-      <c r="AW45" s="102"/>
-      <c r="AX45" s="102"/>
-      <c r="AY45" s="102"/>
-      <c r="AZ45" s="102"/>
-      <c r="BA45" s="102"/>
-      <c r="BB45" s="102"/>
-      <c r="BC45" s="102"/>
-      <c r="BD45" s="102"/>
-      <c r="BE45" s="102"/>
-      <c r="BF45" s="102"/>
-      <c r="BG45" s="102"/>
-      <c r="BH45" s="102"/>
-      <c r="BI45" s="102"/>
-      <c r="BJ45" s="102"/>
-      <c r="BK45" s="102"/>
-      <c r="BL45" s="102"/>
+      <c r="AP45" s="114"/>
+      <c r="AQ45" s="114"/>
+      <c r="AR45" s="114"/>
+      <c r="AS45" s="114"/>
+      <c r="AT45" s="114"/>
+      <c r="AU45" s="114"/>
+      <c r="AV45" s="114"/>
+      <c r="AW45" s="114"/>
+      <c r="AX45" s="114"/>
+      <c r="AY45" s="114"/>
+      <c r="AZ45" s="114"/>
+      <c r="BA45" s="114"/>
+      <c r="BB45" s="114"/>
+      <c r="BC45" s="114"/>
+      <c r="BD45" s="114"/>
+      <c r="BE45" s="114"/>
+      <c r="BF45" s="114"/>
+      <c r="BG45" s="114"/>
+      <c r="BH45" s="114"/>
+      <c r="BI45" s="114"/>
+      <c r="BJ45" s="114"/>
+      <c r="BK45" s="114"/>
+      <c r="BL45" s="114"/>
     </row>
     <row r="46" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A46" s="24"/>
@@ -6512,8 +6517,8 @@
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
-      <c r="AD46" s="100"/>
-      <c r="AE46" s="101"/>
+      <c r="AD46" s="102"/>
+      <c r="AE46" s="103"/>
       <c r="AF46" s="21"/>
       <c r="AG46" s="21"/>
       <c r="AH46" s="21"/>
@@ -6524,29 +6529,29 @@
       <c r="AM46" s="21"/>
       <c r="AN46" s="21"/>
       <c r="AO46" s="21"/>
-      <c r="AP46" s="102"/>
-      <c r="AQ46" s="102"/>
-      <c r="AR46" s="102"/>
-      <c r="AS46" s="102"/>
-      <c r="AT46" s="102"/>
-      <c r="AU46" s="102"/>
-      <c r="AV46" s="102"/>
-      <c r="AW46" s="102"/>
-      <c r="AX46" s="102"/>
-      <c r="AY46" s="102"/>
-      <c r="AZ46" s="102"/>
-      <c r="BA46" s="102"/>
-      <c r="BB46" s="102"/>
-      <c r="BC46" s="102"/>
-      <c r="BD46" s="102"/>
-      <c r="BE46" s="102"/>
-      <c r="BF46" s="102"/>
-      <c r="BG46" s="102"/>
-      <c r="BH46" s="102"/>
-      <c r="BI46" s="102"/>
-      <c r="BJ46" s="102"/>
-      <c r="BK46" s="102"/>
-      <c r="BL46" s="102"/>
+      <c r="AP46" s="114"/>
+      <c r="AQ46" s="114"/>
+      <c r="AR46" s="114"/>
+      <c r="AS46" s="114"/>
+      <c r="AT46" s="114"/>
+      <c r="AU46" s="114"/>
+      <c r="AV46" s="114"/>
+      <c r="AW46" s="114"/>
+      <c r="AX46" s="114"/>
+      <c r="AY46" s="114"/>
+      <c r="AZ46" s="114"/>
+      <c r="BA46" s="114"/>
+      <c r="BB46" s="114"/>
+      <c r="BC46" s="114"/>
+      <c r="BD46" s="114"/>
+      <c r="BE46" s="114"/>
+      <c r="BF46" s="114"/>
+      <c r="BG46" s="114"/>
+      <c r="BH46" s="114"/>
+      <c r="BI46" s="114"/>
+      <c r="BJ46" s="114"/>
+      <c r="BK46" s="114"/>
+      <c r="BL46" s="114"/>
     </row>
     <row r="47" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="24"/>
@@ -6586,8 +6591,8 @@
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
       <c r="AC47" s="21"/>
-      <c r="AD47" s="100"/>
-      <c r="AE47" s="101"/>
+      <c r="AD47" s="102"/>
+      <c r="AE47" s="103"/>
       <c r="AF47" s="21"/>
       <c r="AG47" s="21"/>
       <c r="AH47" s="21"/>
@@ -6598,29 +6603,29 @@
       <c r="AM47" s="21"/>
       <c r="AN47" s="21"/>
       <c r="AO47" s="21"/>
-      <c r="AP47" s="102"/>
-      <c r="AQ47" s="102"/>
-      <c r="AR47" s="102"/>
-      <c r="AS47" s="102"/>
-      <c r="AT47" s="102"/>
-      <c r="AU47" s="102"/>
-      <c r="AV47" s="102"/>
-      <c r="AW47" s="102"/>
-      <c r="AX47" s="102"/>
-      <c r="AY47" s="102"/>
-      <c r="AZ47" s="102"/>
-      <c r="BA47" s="102"/>
-      <c r="BB47" s="102"/>
-      <c r="BC47" s="102"/>
-      <c r="BD47" s="102"/>
-      <c r="BE47" s="102"/>
-      <c r="BF47" s="102"/>
-      <c r="BG47" s="102"/>
-      <c r="BH47" s="102"/>
-      <c r="BI47" s="102"/>
-      <c r="BJ47" s="102"/>
-      <c r="BK47" s="102"/>
-      <c r="BL47" s="102"/>
+      <c r="AP47" s="114"/>
+      <c r="AQ47" s="114"/>
+      <c r="AR47" s="114"/>
+      <c r="AS47" s="114"/>
+      <c r="AT47" s="114"/>
+      <c r="AU47" s="114"/>
+      <c r="AV47" s="114"/>
+      <c r="AW47" s="114"/>
+      <c r="AX47" s="114"/>
+      <c r="AY47" s="114"/>
+      <c r="AZ47" s="114"/>
+      <c r="BA47" s="114"/>
+      <c r="BB47" s="114"/>
+      <c r="BC47" s="114"/>
+      <c r="BD47" s="114"/>
+      <c r="BE47" s="114"/>
+      <c r="BF47" s="114"/>
+      <c r="BG47" s="114"/>
+      <c r="BH47" s="114"/>
+      <c r="BI47" s="114"/>
+      <c r="BJ47" s="114"/>
+      <c r="BK47" s="114"/>
+      <c r="BL47" s="114"/>
     </row>
     <row r="48" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A48" s="24"/>
@@ -6658,8 +6663,8 @@
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
-      <c r="AB48" s="100"/>
-      <c r="AC48" s="101"/>
+      <c r="AB48" s="102"/>
+      <c r="AC48" s="103"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
       <c r="AF48" s="21"/>
@@ -6672,29 +6677,29 @@
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
       <c r="AO48" s="21"/>
-      <c r="AP48" s="102"/>
-      <c r="AQ48" s="102"/>
-      <c r="AR48" s="102"/>
-      <c r="AS48" s="102"/>
-      <c r="AT48" s="102"/>
-      <c r="AU48" s="102"/>
-      <c r="AV48" s="102"/>
-      <c r="AW48" s="102"/>
-      <c r="AX48" s="102"/>
-      <c r="AY48" s="102"/>
-      <c r="AZ48" s="102"/>
-      <c r="BA48" s="102"/>
-      <c r="BB48" s="102"/>
-      <c r="BC48" s="102"/>
-      <c r="BD48" s="102"/>
-      <c r="BE48" s="102"/>
-      <c r="BF48" s="102"/>
-      <c r="BG48" s="102"/>
-      <c r="BH48" s="102"/>
-      <c r="BI48" s="102"/>
-      <c r="BJ48" s="102"/>
-      <c r="BK48" s="102"/>
-      <c r="BL48" s="102"/>
+      <c r="AP48" s="114"/>
+      <c r="AQ48" s="114"/>
+      <c r="AR48" s="114"/>
+      <c r="AS48" s="114"/>
+      <c r="AT48" s="114"/>
+      <c r="AU48" s="114"/>
+      <c r="AV48" s="114"/>
+      <c r="AW48" s="114"/>
+      <c r="AX48" s="114"/>
+      <c r="AY48" s="114"/>
+      <c r="AZ48" s="114"/>
+      <c r="BA48" s="114"/>
+      <c r="BB48" s="114"/>
+      <c r="BC48" s="114"/>
+      <c r="BD48" s="114"/>
+      <c r="BE48" s="114"/>
+      <c r="BF48" s="114"/>
+      <c r="BG48" s="114"/>
+      <c r="BH48" s="114"/>
+      <c r="BI48" s="114"/>
+      <c r="BJ48" s="114"/>
+      <c r="BK48" s="114"/>
+      <c r="BL48" s="114"/>
     </row>
     <row r="49" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A49" s="24"/>
@@ -6802,11 +6807,11 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AF49" s="100" t="str">
+      <c r="AF49" s="102" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AG49" s="101"/>
+      <c r="AG49" s="103"/>
       <c r="AH49" s="21" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -6824,7 +6829,7 @@
         <v/>
       </c>
       <c r="AL49" s="21" t="str">
-        <f t="shared" ref="AL49:AU50" si="14">IF(AND($C50="Goal",AL$5&gt;=$G50,AL$5&lt;=$G50+$H50-1),2,IF(AND($C50="Milestone",AL$5&gt;=$G50,AL$5&lt;=$G50+$H50-1),1,""))</f>
+        <f t="shared" ref="AL49:AO50" si="14">IF(AND($C50="Goal",AL$5&gt;=$G50,AL$5&lt;=$G50+$H50-1),2,IF(AND($C50="Milestone",AL$5&gt;=$G50,AL$5&lt;=$G50+$H50-1),1,""))</f>
         <v/>
       </c>
       <c r="AM49" s="21" t="str">
@@ -6839,29 +6844,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AP49" s="102"/>
-      <c r="AQ49" s="102"/>
-      <c r="AR49" s="102"/>
-      <c r="AS49" s="102"/>
-      <c r="AT49" s="102"/>
-      <c r="AU49" s="102"/>
-      <c r="AV49" s="102"/>
-      <c r="AW49" s="102"/>
-      <c r="AX49" s="102"/>
-      <c r="AY49" s="102"/>
-      <c r="AZ49" s="102"/>
-      <c r="BA49" s="102"/>
-      <c r="BB49" s="102"/>
-      <c r="BC49" s="102"/>
-      <c r="BD49" s="102"/>
-      <c r="BE49" s="102"/>
-      <c r="BF49" s="102"/>
-      <c r="BG49" s="102"/>
-      <c r="BH49" s="102"/>
-      <c r="BI49" s="102"/>
-      <c r="BJ49" s="102"/>
-      <c r="BK49" s="102"/>
-      <c r="BL49" s="102"/>
+      <c r="AP49" s="114"/>
+      <c r="AQ49" s="114"/>
+      <c r="AR49" s="114"/>
+      <c r="AS49" s="114"/>
+      <c r="AT49" s="114"/>
+      <c r="AU49" s="114"/>
+      <c r="AV49" s="114"/>
+      <c r="AW49" s="114"/>
+      <c r="AX49" s="114"/>
+      <c r="AY49" s="114"/>
+      <c r="AZ49" s="114"/>
+      <c r="BA49" s="114"/>
+      <c r="BB49" s="114"/>
+      <c r="BC49" s="114"/>
+      <c r="BD49" s="114"/>
+      <c r="BE49" s="114"/>
+      <c r="BF49" s="114"/>
+      <c r="BG49" s="114"/>
+      <c r="BH49" s="114"/>
+      <c r="BI49" s="114"/>
+      <c r="BJ49" s="114"/>
+      <c r="BK49" s="114"/>
+      <c r="BL49" s="114"/>
     </row>
     <row r="50" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A50" s="24"/>
@@ -6923,11 +6928,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="T50" s="100" t="str">
+      <c r="T50" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="U50" s="101"/>
+      <c r="U50" s="103"/>
       <c r="V50" s="21" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -7008,29 +7013,29 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AP50" s="102"/>
-      <c r="AQ50" s="102"/>
-      <c r="AR50" s="102"/>
-      <c r="AS50" s="102"/>
-      <c r="AT50" s="102"/>
-      <c r="AU50" s="102"/>
-      <c r="AV50" s="102"/>
-      <c r="AW50" s="102"/>
-      <c r="AX50" s="102"/>
-      <c r="AY50" s="102"/>
-      <c r="AZ50" s="102"/>
-      <c r="BA50" s="102"/>
-      <c r="BB50" s="102"/>
-      <c r="BC50" s="102"/>
-      <c r="BD50" s="102"/>
-      <c r="BE50" s="102"/>
-      <c r="BF50" s="102"/>
-      <c r="BG50" s="102"/>
-      <c r="BH50" s="102"/>
-      <c r="BI50" s="102"/>
-      <c r="BJ50" s="102"/>
-      <c r="BK50" s="102"/>
-      <c r="BL50" s="102"/>
+      <c r="AP50" s="114"/>
+      <c r="AQ50" s="114"/>
+      <c r="AR50" s="114"/>
+      <c r="AS50" s="114"/>
+      <c r="AT50" s="114"/>
+      <c r="AU50" s="114"/>
+      <c r="AV50" s="114"/>
+      <c r="AW50" s="114"/>
+      <c r="AX50" s="114"/>
+      <c r="AY50" s="114"/>
+      <c r="AZ50" s="114"/>
+      <c r="BA50" s="114"/>
+      <c r="BB50" s="114"/>
+      <c r="BC50" s="114"/>
+      <c r="BD50" s="114"/>
+      <c r="BE50" s="114"/>
+      <c r="BF50" s="114"/>
+      <c r="BG50" s="114"/>
+      <c r="BH50" s="114"/>
+      <c r="BI50" s="114"/>
+      <c r="BJ50" s="114"/>
+      <c r="BK50" s="114"/>
+      <c r="BL50" s="114"/>
     </row>
     <row r="51" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A51" s="24"/>
@@ -7062,8 +7067,8 @@
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
-      <c r="T51" s="114"/>
-      <c r="U51" s="114"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
       <c r="X51" s="21"/>
@@ -7084,29 +7089,29 @@
       <c r="AM51" s="21"/>
       <c r="AN51" s="21"/>
       <c r="AO51" s="21"/>
-      <c r="AP51" s="102"/>
-      <c r="AQ51" s="102"/>
-      <c r="AR51" s="102"/>
-      <c r="AS51" s="102"/>
-      <c r="AT51" s="102"/>
-      <c r="AU51" s="102"/>
-      <c r="AV51" s="102"/>
-      <c r="AW51" s="102"/>
-      <c r="AX51" s="102"/>
-      <c r="AY51" s="102"/>
-      <c r="AZ51" s="102"/>
-      <c r="BA51" s="102"/>
-      <c r="BB51" s="102"/>
-      <c r="BC51" s="102"/>
-      <c r="BD51" s="102"/>
-      <c r="BE51" s="102"/>
-      <c r="BF51" s="102"/>
-      <c r="BG51" s="102"/>
-      <c r="BH51" s="102"/>
-      <c r="BI51" s="102"/>
-      <c r="BJ51" s="102"/>
-      <c r="BK51" s="102"/>
-      <c r="BL51" s="102"/>
+      <c r="AP51" s="114"/>
+      <c r="AQ51" s="114"/>
+      <c r="AR51" s="114"/>
+      <c r="AS51" s="114"/>
+      <c r="AT51" s="114"/>
+      <c r="AU51" s="114"/>
+      <c r="AV51" s="114"/>
+      <c r="AW51" s="114"/>
+      <c r="AX51" s="114"/>
+      <c r="AY51" s="114"/>
+      <c r="AZ51" s="114"/>
+      <c r="BA51" s="114"/>
+      <c r="BB51" s="114"/>
+      <c r="BC51" s="114"/>
+      <c r="BD51" s="114"/>
+      <c r="BE51" s="114"/>
+      <c r="BF51" s="114"/>
+      <c r="BG51" s="114"/>
+      <c r="BH51" s="114"/>
+      <c r="BI51" s="114"/>
+      <c r="BJ51" s="114"/>
+      <c r="BK51" s="114"/>
+      <c r="BL51" s="114"/>
     </row>
     <row r="52" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A52" s="24"/>
@@ -7148,8 +7153,8 @@
       <c r="AA52" s="86"/>
       <c r="AB52" s="86"/>
       <c r="AC52" s="86"/>
-      <c r="AD52" s="115"/>
-      <c r="AE52" s="116"/>
+      <c r="AD52" s="100"/>
+      <c r="AE52" s="101"/>
       <c r="AF52" s="86"/>
       <c r="AG52" s="86"/>
       <c r="AH52" s="86"/>
@@ -7160,29 +7165,29 @@
       <c r="AM52" s="86"/>
       <c r="AN52" s="86"/>
       <c r="AO52" s="86"/>
-      <c r="AP52" s="102"/>
-      <c r="AQ52" s="102"/>
-      <c r="AR52" s="102"/>
-      <c r="AS52" s="102"/>
-      <c r="AT52" s="102"/>
-      <c r="AU52" s="102"/>
-      <c r="AV52" s="102"/>
-      <c r="AW52" s="102"/>
-      <c r="AX52" s="102"/>
-      <c r="AY52" s="102"/>
-      <c r="AZ52" s="102"/>
-      <c r="BA52" s="102"/>
-      <c r="BB52" s="102"/>
-      <c r="BC52" s="102"/>
-      <c r="BD52" s="102"/>
-      <c r="BE52" s="102"/>
-      <c r="BF52" s="102"/>
-      <c r="BG52" s="102"/>
-      <c r="BH52" s="102"/>
-      <c r="BI52" s="102"/>
-      <c r="BJ52" s="102"/>
-      <c r="BK52" s="102"/>
-      <c r="BL52" s="102"/>
+      <c r="AP52" s="114"/>
+      <c r="AQ52" s="114"/>
+      <c r="AR52" s="114"/>
+      <c r="AS52" s="114"/>
+      <c r="AT52" s="114"/>
+      <c r="AU52" s="114"/>
+      <c r="AV52" s="114"/>
+      <c r="AW52" s="114"/>
+      <c r="AX52" s="114"/>
+      <c r="AY52" s="114"/>
+      <c r="AZ52" s="114"/>
+      <c r="BA52" s="114"/>
+      <c r="BB52" s="114"/>
+      <c r="BC52" s="114"/>
+      <c r="BD52" s="114"/>
+      <c r="BE52" s="114"/>
+      <c r="BF52" s="114"/>
+      <c r="BG52" s="114"/>
+      <c r="BH52" s="114"/>
+      <c r="BI52" s="114"/>
+      <c r="BJ52" s="114"/>
+      <c r="BK52" s="114"/>
+      <c r="BL52" s="114"/>
     </row>
     <row r="53" spans="1:64" s="89" customFormat="1" ht="36" customHeight="1">
       <c r="A53" s="88"/>
@@ -7228,29 +7233,29 @@
       <c r="AM53" s="33"/>
       <c r="AN53" s="33"/>
       <c r="AO53" s="33"/>
-      <c r="AP53" s="102"/>
-      <c r="AQ53" s="102"/>
-      <c r="AR53" s="102"/>
-      <c r="AS53" s="102"/>
-      <c r="AT53" s="102"/>
-      <c r="AU53" s="102"/>
-      <c r="AV53" s="102"/>
-      <c r="AW53" s="102"/>
-      <c r="AX53" s="102"/>
-      <c r="AY53" s="102"/>
-      <c r="AZ53" s="102"/>
-      <c r="BA53" s="102"/>
-      <c r="BB53" s="102"/>
-      <c r="BC53" s="102"/>
-      <c r="BD53" s="102"/>
-      <c r="BE53" s="102"/>
-      <c r="BF53" s="102"/>
-      <c r="BG53" s="102"/>
-      <c r="BH53" s="102"/>
-      <c r="BI53" s="102"/>
-      <c r="BJ53" s="102"/>
-      <c r="BK53" s="102"/>
-      <c r="BL53" s="102"/>
+      <c r="AP53" s="114"/>
+      <c r="AQ53" s="114"/>
+      <c r="AR53" s="114"/>
+      <c r="AS53" s="114"/>
+      <c r="AT53" s="114"/>
+      <c r="AU53" s="114"/>
+      <c r="AV53" s="114"/>
+      <c r="AW53" s="114"/>
+      <c r="AX53" s="114"/>
+      <c r="AY53" s="114"/>
+      <c r="AZ53" s="114"/>
+      <c r="BA53" s="114"/>
+      <c r="BB53" s="114"/>
+      <c r="BC53" s="114"/>
+      <c r="BD53" s="114"/>
+      <c r="BE53" s="114"/>
+      <c r="BF53" s="114"/>
+      <c r="BG53" s="114"/>
+      <c r="BH53" s="114"/>
+      <c r="BI53" s="114"/>
+      <c r="BJ53" s="114"/>
+      <c r="BK53" s="114"/>
+      <c r="BL53" s="114"/>
     </row>
     <row r="54" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A54" s="24"/>
@@ -7284,8 +7289,8 @@
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
       <c r="W54" s="21"/>
-      <c r="X54" s="100"/>
-      <c r="Y54" s="101"/>
+      <c r="X54" s="102"/>
+      <c r="Y54" s="103"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
@@ -7302,29 +7307,29 @@
       <c r="AM54" s="21"/>
       <c r="AN54" s="21"/>
       <c r="AO54" s="21"/>
-      <c r="AP54" s="102"/>
-      <c r="AQ54" s="102"/>
-      <c r="AR54" s="102"/>
-      <c r="AS54" s="102"/>
-      <c r="AT54" s="102"/>
-      <c r="AU54" s="102"/>
-      <c r="AV54" s="102"/>
-      <c r="AW54" s="102"/>
-      <c r="AX54" s="102"/>
-      <c r="AY54" s="102"/>
-      <c r="AZ54" s="102"/>
-      <c r="BA54" s="102"/>
-      <c r="BB54" s="102"/>
-      <c r="BC54" s="102"/>
-      <c r="BD54" s="102"/>
-      <c r="BE54" s="102"/>
-      <c r="BF54" s="102"/>
-      <c r="BG54" s="102"/>
-      <c r="BH54" s="102"/>
-      <c r="BI54" s="102"/>
-      <c r="BJ54" s="102"/>
-      <c r="BK54" s="102"/>
-      <c r="BL54" s="102"/>
+      <c r="AP54" s="114"/>
+      <c r="AQ54" s="114"/>
+      <c r="AR54" s="114"/>
+      <c r="AS54" s="114"/>
+      <c r="AT54" s="114"/>
+      <c r="AU54" s="114"/>
+      <c r="AV54" s="114"/>
+      <c r="AW54" s="114"/>
+      <c r="AX54" s="114"/>
+      <c r="AY54" s="114"/>
+      <c r="AZ54" s="114"/>
+      <c r="BA54" s="114"/>
+      <c r="BB54" s="114"/>
+      <c r="BC54" s="114"/>
+      <c r="BD54" s="114"/>
+      <c r="BE54" s="114"/>
+      <c r="BF54" s="114"/>
+      <c r="BG54" s="114"/>
+      <c r="BH54" s="114"/>
+      <c r="BI54" s="114"/>
+      <c r="BJ54" s="114"/>
+      <c r="BK54" s="114"/>
+      <c r="BL54" s="114"/>
     </row>
     <row r="55" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A55" s="24"/>
@@ -7358,8 +7363,8 @@
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
-      <c r="X55" s="100"/>
-      <c r="Y55" s="101"/>
+      <c r="X55" s="102"/>
+      <c r="Y55" s="103"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
@@ -7376,29 +7381,29 @@
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
       <c r="AO55" s="21"/>
-      <c r="AP55" s="102"/>
-      <c r="AQ55" s="102"/>
-      <c r="AR55" s="102"/>
-      <c r="AS55" s="102"/>
-      <c r="AT55" s="102"/>
-      <c r="AU55" s="102"/>
-      <c r="AV55" s="102"/>
-      <c r="AW55" s="102"/>
-      <c r="AX55" s="102"/>
-      <c r="AY55" s="102"/>
-      <c r="AZ55" s="102"/>
-      <c r="BA55" s="102"/>
-      <c r="BB55" s="102"/>
-      <c r="BC55" s="102"/>
-      <c r="BD55" s="102"/>
-      <c r="BE55" s="102"/>
-      <c r="BF55" s="102"/>
-      <c r="BG55" s="102"/>
-      <c r="BH55" s="102"/>
-      <c r="BI55" s="102"/>
-      <c r="BJ55" s="102"/>
-      <c r="BK55" s="102"/>
-      <c r="BL55" s="102"/>
+      <c r="AP55" s="114"/>
+      <c r="AQ55" s="114"/>
+      <c r="AR55" s="114"/>
+      <c r="AS55" s="114"/>
+      <c r="AT55" s="114"/>
+      <c r="AU55" s="114"/>
+      <c r="AV55" s="114"/>
+      <c r="AW55" s="114"/>
+      <c r="AX55" s="114"/>
+      <c r="AY55" s="114"/>
+      <c r="AZ55" s="114"/>
+      <c r="BA55" s="114"/>
+      <c r="BB55" s="114"/>
+      <c r="BC55" s="114"/>
+      <c r="BD55" s="114"/>
+      <c r="BE55" s="114"/>
+      <c r="BF55" s="114"/>
+      <c r="BG55" s="114"/>
+      <c r="BH55" s="114"/>
+      <c r="BI55" s="114"/>
+      <c r="BJ55" s="114"/>
+      <c r="BK55" s="114"/>
+      <c r="BL55" s="114"/>
     </row>
     <row r="56" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A56" s="24"/>
@@ -7474,11 +7479,11 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="X56" s="100" t="str">
+      <c r="X56" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="Y56" s="101"/>
+      <c r="Y56" s="103"/>
       <c r="Z56" s="33" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -7543,29 +7548,29 @@
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP56" s="102"/>
-      <c r="AQ56" s="102"/>
-      <c r="AR56" s="102"/>
-      <c r="AS56" s="102"/>
-      <c r="AT56" s="102"/>
-      <c r="AU56" s="102"/>
-      <c r="AV56" s="102"/>
-      <c r="AW56" s="102"/>
-      <c r="AX56" s="102"/>
-      <c r="AY56" s="102"/>
-      <c r="AZ56" s="102"/>
-      <c r="BA56" s="102"/>
-      <c r="BB56" s="102"/>
-      <c r="BC56" s="102"/>
-      <c r="BD56" s="102"/>
-      <c r="BE56" s="102"/>
-      <c r="BF56" s="102"/>
-      <c r="BG56" s="102"/>
-      <c r="BH56" s="102"/>
-      <c r="BI56" s="102"/>
-      <c r="BJ56" s="102"/>
-      <c r="BK56" s="102"/>
-      <c r="BL56" s="102"/>
+      <c r="AP56" s="114"/>
+      <c r="AQ56" s="114"/>
+      <c r="AR56" s="114"/>
+      <c r="AS56" s="114"/>
+      <c r="AT56" s="114"/>
+      <c r="AU56" s="114"/>
+      <c r="AV56" s="114"/>
+      <c r="AW56" s="114"/>
+      <c r="AX56" s="114"/>
+      <c r="AY56" s="114"/>
+      <c r="AZ56" s="114"/>
+      <c r="BA56" s="114"/>
+      <c r="BB56" s="114"/>
+      <c r="BC56" s="114"/>
+      <c r="BD56" s="114"/>
+      <c r="BE56" s="114"/>
+      <c r="BF56" s="114"/>
+      <c r="BG56" s="114"/>
+      <c r="BH56" s="114"/>
+      <c r="BI56" s="114"/>
+      <c r="BJ56" s="114"/>
+      <c r="BK56" s="114"/>
+      <c r="BL56" s="114"/>
     </row>
     <row r="57" spans="1:64" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="A57" s="27"/>
@@ -7611,29 +7616,29 @@
       <c r="AM57" s="33"/>
       <c r="AN57" s="33"/>
       <c r="AO57" s="33"/>
-      <c r="AP57" s="102"/>
-      <c r="AQ57" s="102"/>
-      <c r="AR57" s="102"/>
-      <c r="AS57" s="102"/>
-      <c r="AT57" s="102"/>
-      <c r="AU57" s="102"/>
-      <c r="AV57" s="102"/>
-      <c r="AW57" s="102"/>
-      <c r="AX57" s="102"/>
-      <c r="AY57" s="102"/>
-      <c r="AZ57" s="102"/>
-      <c r="BA57" s="102"/>
-      <c r="BB57" s="102"/>
-      <c r="BC57" s="102"/>
-      <c r="BD57" s="102"/>
-      <c r="BE57" s="102"/>
-      <c r="BF57" s="102"/>
-      <c r="BG57" s="102"/>
-      <c r="BH57" s="102"/>
-      <c r="BI57" s="102"/>
-      <c r="BJ57" s="102"/>
-      <c r="BK57" s="102"/>
-      <c r="BL57" s="102"/>
+      <c r="AP57" s="114"/>
+      <c r="AQ57" s="114"/>
+      <c r="AR57" s="114"/>
+      <c r="AS57" s="114"/>
+      <c r="AT57" s="114"/>
+      <c r="AU57" s="114"/>
+      <c r="AV57" s="114"/>
+      <c r="AW57" s="114"/>
+      <c r="AX57" s="114"/>
+      <c r="AY57" s="114"/>
+      <c r="AZ57" s="114"/>
+      <c r="BA57" s="114"/>
+      <c r="BB57" s="114"/>
+      <c r="BC57" s="114"/>
+      <c r="BD57" s="114"/>
+      <c r="BE57" s="114"/>
+      <c r="BF57" s="114"/>
+      <c r="BG57" s="114"/>
+      <c r="BH57" s="114"/>
+      <c r="BI57" s="114"/>
+      <c r="BJ57" s="114"/>
+      <c r="BK57" s="114"/>
+      <c r="BL57" s="114"/>
     </row>
     <row r="58" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A58" s="24"/>
@@ -7677,29 +7682,29 @@
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
       <c r="AO58" s="21"/>
-      <c r="AP58" s="102"/>
-      <c r="AQ58" s="102"/>
-      <c r="AR58" s="102"/>
-      <c r="AS58" s="102"/>
-      <c r="AT58" s="102"/>
-      <c r="AU58" s="102"/>
-      <c r="AV58" s="102"/>
-      <c r="AW58" s="102"/>
-      <c r="AX58" s="102"/>
-      <c r="AY58" s="102"/>
-      <c r="AZ58" s="102"/>
-      <c r="BA58" s="102"/>
-      <c r="BB58" s="102"/>
-      <c r="BC58" s="102"/>
-      <c r="BD58" s="102"/>
-      <c r="BE58" s="102"/>
-      <c r="BF58" s="102"/>
-      <c r="BG58" s="102"/>
-      <c r="BH58" s="102"/>
-      <c r="BI58" s="102"/>
-      <c r="BJ58" s="102"/>
-      <c r="BK58" s="102"/>
-      <c r="BL58" s="102"/>
+      <c r="AP58" s="114"/>
+      <c r="AQ58" s="114"/>
+      <c r="AR58" s="114"/>
+      <c r="AS58" s="114"/>
+      <c r="AT58" s="114"/>
+      <c r="AU58" s="114"/>
+      <c r="AV58" s="114"/>
+      <c r="AW58" s="114"/>
+      <c r="AX58" s="114"/>
+      <c r="AY58" s="114"/>
+      <c r="AZ58" s="114"/>
+      <c r="BA58" s="114"/>
+      <c r="BB58" s="114"/>
+      <c r="BC58" s="114"/>
+      <c r="BD58" s="114"/>
+      <c r="BE58" s="114"/>
+      <c r="BF58" s="114"/>
+      <c r="BG58" s="114"/>
+      <c r="BH58" s="114"/>
+      <c r="BI58" s="114"/>
+      <c r="BJ58" s="114"/>
+      <c r="BK58" s="114"/>
+      <c r="BL58" s="114"/>
     </row>
     <row r="59" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A59" s="24"/>
@@ -7721,8 +7726,8 @@
       </c>
       <c r="H59" s="36"/>
       <c r="I59" s="20"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="101"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="103"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
       <c r="N59" s="21"/>
@@ -7753,29 +7758,29 @@
       <c r="AM59" s="21"/>
       <c r="AN59" s="21"/>
       <c r="AO59" s="21"/>
-      <c r="AP59" s="102"/>
-      <c r="AQ59" s="102"/>
-      <c r="AR59" s="102"/>
-      <c r="AS59" s="102"/>
-      <c r="AT59" s="102"/>
-      <c r="AU59" s="102"/>
-      <c r="AV59" s="102"/>
-      <c r="AW59" s="102"/>
-      <c r="AX59" s="102"/>
-      <c r="AY59" s="102"/>
-      <c r="AZ59" s="102"/>
-      <c r="BA59" s="102"/>
-      <c r="BB59" s="102"/>
-      <c r="BC59" s="102"/>
-      <c r="BD59" s="102"/>
-      <c r="BE59" s="102"/>
-      <c r="BF59" s="102"/>
-      <c r="BG59" s="102"/>
-      <c r="BH59" s="102"/>
-      <c r="BI59" s="102"/>
-      <c r="BJ59" s="102"/>
-      <c r="BK59" s="102"/>
-      <c r="BL59" s="102"/>
+      <c r="AP59" s="114"/>
+      <c r="AQ59" s="114"/>
+      <c r="AR59" s="114"/>
+      <c r="AS59" s="114"/>
+      <c r="AT59" s="114"/>
+      <c r="AU59" s="114"/>
+      <c r="AV59" s="114"/>
+      <c r="AW59" s="114"/>
+      <c r="AX59" s="114"/>
+      <c r="AY59" s="114"/>
+      <c r="AZ59" s="114"/>
+      <c r="BA59" s="114"/>
+      <c r="BB59" s="114"/>
+      <c r="BC59" s="114"/>
+      <c r="BD59" s="114"/>
+      <c r="BE59" s="114"/>
+      <c r="BF59" s="114"/>
+      <c r="BG59" s="114"/>
+      <c r="BH59" s="114"/>
+      <c r="BI59" s="114"/>
+      <c r="BJ59" s="114"/>
+      <c r="BK59" s="114"/>
+      <c r="BL59" s="114"/>
     </row>
     <row r="60" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A60" s="24" t="s">
@@ -7807,8 +7812,8 @@
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
-      <c r="R60" s="100"/>
-      <c r="S60" s="101"/>
+      <c r="R60" s="102"/>
+      <c r="S60" s="103"/>
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
@@ -7831,29 +7836,29 @@
       <c r="AM60" s="21"/>
       <c r="AN60" s="21"/>
       <c r="AO60" s="21"/>
-      <c r="AP60" s="102"/>
-      <c r="AQ60" s="102"/>
-      <c r="AR60" s="102"/>
-      <c r="AS60" s="102"/>
-      <c r="AT60" s="102"/>
-      <c r="AU60" s="102"/>
-      <c r="AV60" s="102"/>
-      <c r="AW60" s="102"/>
-      <c r="AX60" s="102"/>
-      <c r="AY60" s="102"/>
-      <c r="AZ60" s="102"/>
-      <c r="BA60" s="102"/>
-      <c r="BB60" s="102"/>
-      <c r="BC60" s="102"/>
-      <c r="BD60" s="102"/>
-      <c r="BE60" s="102"/>
-      <c r="BF60" s="102"/>
-      <c r="BG60" s="102"/>
-      <c r="BH60" s="102"/>
-      <c r="BI60" s="102"/>
-      <c r="BJ60" s="102"/>
-      <c r="BK60" s="102"/>
-      <c r="BL60" s="102"/>
+      <c r="AP60" s="114"/>
+      <c r="AQ60" s="114"/>
+      <c r="AR60" s="114"/>
+      <c r="AS60" s="114"/>
+      <c r="AT60" s="114"/>
+      <c r="AU60" s="114"/>
+      <c r="AV60" s="114"/>
+      <c r="AW60" s="114"/>
+      <c r="AX60" s="114"/>
+      <c r="AY60" s="114"/>
+      <c r="AZ60" s="114"/>
+      <c r="BA60" s="114"/>
+      <c r="BB60" s="114"/>
+      <c r="BC60" s="114"/>
+      <c r="BD60" s="114"/>
+      <c r="BE60" s="114"/>
+      <c r="BF60" s="114"/>
+      <c r="BG60" s="114"/>
+      <c r="BH60" s="114"/>
+      <c r="BI60" s="114"/>
+      <c r="BJ60" s="114"/>
+      <c r="BK60" s="114"/>
+      <c r="BL60" s="114"/>
     </row>
     <row r="61" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A61" s="24"/>
@@ -7897,29 +7902,29 @@
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
       <c r="AO61" s="21"/>
-      <c r="AP61" s="102"/>
-      <c r="AQ61" s="102"/>
-      <c r="AR61" s="102"/>
-      <c r="AS61" s="102"/>
-      <c r="AT61" s="102"/>
-      <c r="AU61" s="102"/>
-      <c r="AV61" s="102"/>
-      <c r="AW61" s="102"/>
-      <c r="AX61" s="102"/>
-      <c r="AY61" s="102"/>
-      <c r="AZ61" s="102"/>
-      <c r="BA61" s="102"/>
-      <c r="BB61" s="102"/>
-      <c r="BC61" s="102"/>
-      <c r="BD61" s="102"/>
-      <c r="BE61" s="102"/>
-      <c r="BF61" s="102"/>
-      <c r="BG61" s="102"/>
-      <c r="BH61" s="102"/>
-      <c r="BI61" s="102"/>
-      <c r="BJ61" s="102"/>
-      <c r="BK61" s="102"/>
-      <c r="BL61" s="102"/>
+      <c r="AP61" s="114"/>
+      <c r="AQ61" s="114"/>
+      <c r="AR61" s="114"/>
+      <c r="AS61" s="114"/>
+      <c r="AT61" s="114"/>
+      <c r="AU61" s="114"/>
+      <c r="AV61" s="114"/>
+      <c r="AW61" s="114"/>
+      <c r="AX61" s="114"/>
+      <c r="AY61" s="114"/>
+      <c r="AZ61" s="114"/>
+      <c r="BA61" s="114"/>
+      <c r="BB61" s="114"/>
+      <c r="BC61" s="114"/>
+      <c r="BD61" s="114"/>
+      <c r="BE61" s="114"/>
+      <c r="BF61" s="114"/>
+      <c r="BG61" s="114"/>
+      <c r="BH61" s="114"/>
+      <c r="BI61" s="114"/>
+      <c r="BJ61" s="114"/>
+      <c r="BK61" s="114"/>
+      <c r="BL61" s="114"/>
     </row>
     <row r="62" spans="1:64" s="22" customFormat="1" ht="36" hidden="1" customHeight="1">
       <c r="A62" s="24"/>
@@ -7963,29 +7968,29 @@
       <c r="AM62" s="21"/>
       <c r="AN62" s="21"/>
       <c r="AO62" s="21"/>
-      <c r="AP62" s="102"/>
-      <c r="AQ62" s="102"/>
-      <c r="AR62" s="102"/>
-      <c r="AS62" s="102"/>
-      <c r="AT62" s="102"/>
-      <c r="AU62" s="102"/>
-      <c r="AV62" s="102"/>
-      <c r="AW62" s="102"/>
-      <c r="AX62" s="102"/>
-      <c r="AY62" s="102"/>
-      <c r="AZ62" s="102"/>
-      <c r="BA62" s="102"/>
-      <c r="BB62" s="102"/>
-      <c r="BC62" s="102"/>
-      <c r="BD62" s="102"/>
-      <c r="BE62" s="102"/>
-      <c r="BF62" s="102"/>
-      <c r="BG62" s="102"/>
-      <c r="BH62" s="102"/>
-      <c r="BI62" s="102"/>
-      <c r="BJ62" s="102"/>
-      <c r="BK62" s="102"/>
-      <c r="BL62" s="102"/>
+      <c r="AP62" s="114"/>
+      <c r="AQ62" s="114"/>
+      <c r="AR62" s="114"/>
+      <c r="AS62" s="114"/>
+      <c r="AT62" s="114"/>
+      <c r="AU62" s="114"/>
+      <c r="AV62" s="114"/>
+      <c r="AW62" s="114"/>
+      <c r="AX62" s="114"/>
+      <c r="AY62" s="114"/>
+      <c r="AZ62" s="114"/>
+      <c r="BA62" s="114"/>
+      <c r="BB62" s="114"/>
+      <c r="BC62" s="114"/>
+      <c r="BD62" s="114"/>
+      <c r="BE62" s="114"/>
+      <c r="BF62" s="114"/>
+      <c r="BG62" s="114"/>
+      <c r="BH62" s="114"/>
+      <c r="BI62" s="114"/>
+      <c r="BJ62" s="114"/>
+      <c r="BK62" s="114"/>
+      <c r="BL62" s="114"/>
     </row>
     <row r="63" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A63" s="24" t="s">
@@ -8017,8 +8022,8 @@
       <c r="O63" s="21"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
-      <c r="R63" s="100"/>
-      <c r="S63" s="101"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="103"/>
       <c r="T63" s="21"/>
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
@@ -8041,29 +8046,29 @@
       <c r="AM63" s="21"/>
       <c r="AN63" s="21"/>
       <c r="AO63" s="21"/>
-      <c r="AP63" s="102"/>
-      <c r="AQ63" s="102"/>
-      <c r="AR63" s="102"/>
-      <c r="AS63" s="102"/>
-      <c r="AT63" s="102"/>
-      <c r="AU63" s="102"/>
-      <c r="AV63" s="102"/>
-      <c r="AW63" s="102"/>
-      <c r="AX63" s="102"/>
-      <c r="AY63" s="102"/>
-      <c r="AZ63" s="102"/>
-      <c r="BA63" s="102"/>
-      <c r="BB63" s="102"/>
-      <c r="BC63" s="102"/>
-      <c r="BD63" s="102"/>
-      <c r="BE63" s="102"/>
-      <c r="BF63" s="102"/>
-      <c r="BG63" s="102"/>
-      <c r="BH63" s="102"/>
-      <c r="BI63" s="102"/>
-      <c r="BJ63" s="102"/>
-      <c r="BK63" s="102"/>
-      <c r="BL63" s="102"/>
+      <c r="AP63" s="114"/>
+      <c r="AQ63" s="114"/>
+      <c r="AR63" s="114"/>
+      <c r="AS63" s="114"/>
+      <c r="AT63" s="114"/>
+      <c r="AU63" s="114"/>
+      <c r="AV63" s="114"/>
+      <c r="AW63" s="114"/>
+      <c r="AX63" s="114"/>
+      <c r="AY63" s="114"/>
+      <c r="AZ63" s="114"/>
+      <c r="BA63" s="114"/>
+      <c r="BB63" s="114"/>
+      <c r="BC63" s="114"/>
+      <c r="BD63" s="114"/>
+      <c r="BE63" s="114"/>
+      <c r="BF63" s="114"/>
+      <c r="BG63" s="114"/>
+      <c r="BH63" s="114"/>
+      <c r="BI63" s="114"/>
+      <c r="BJ63" s="114"/>
+      <c r="BK63" s="114"/>
+      <c r="BL63" s="114"/>
     </row>
     <row r="64" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A64" s="24"/>
@@ -8115,11 +8120,11 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R64" s="100" t="str">
+      <c r="R64" s="102" t="str">
         <f t="shared" ref="R64:AO64" si="18">IF(AND($C65="Goal",R$5&gt;=$G65,R$5&lt;=$G65+$H65-1),2,IF(AND($C65="Milestone",R$5&gt;=$G65,R$5&lt;=$G65+$H65-1),1,""))</f>
         <v/>
       </c>
-      <c r="S64" s="101"/>
+      <c r="S64" s="103"/>
       <c r="T64" s="21" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8208,29 +8213,29 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="AP64" s="102"/>
-      <c r="AQ64" s="102"/>
-      <c r="AR64" s="102"/>
-      <c r="AS64" s="102"/>
-      <c r="AT64" s="102"/>
-      <c r="AU64" s="102"/>
-      <c r="AV64" s="102"/>
-      <c r="AW64" s="102"/>
-      <c r="AX64" s="102"/>
-      <c r="AY64" s="102"/>
-      <c r="AZ64" s="102"/>
-      <c r="BA64" s="102"/>
-      <c r="BB64" s="102"/>
-      <c r="BC64" s="102"/>
-      <c r="BD64" s="102"/>
-      <c r="BE64" s="102"/>
-      <c r="BF64" s="102"/>
-      <c r="BG64" s="102"/>
-      <c r="BH64" s="102"/>
-      <c r="BI64" s="102"/>
-      <c r="BJ64" s="102"/>
-      <c r="BK64" s="102"/>
-      <c r="BL64" s="102"/>
+      <c r="AP64" s="114"/>
+      <c r="AQ64" s="114"/>
+      <c r="AR64" s="114"/>
+      <c r="AS64" s="114"/>
+      <c r="AT64" s="114"/>
+      <c r="AU64" s="114"/>
+      <c r="AV64" s="114"/>
+      <c r="AW64" s="114"/>
+      <c r="AX64" s="114"/>
+      <c r="AY64" s="114"/>
+      <c r="AZ64" s="114"/>
+      <c r="BA64" s="114"/>
+      <c r="BB64" s="114"/>
+      <c r="BC64" s="114"/>
+      <c r="BD64" s="114"/>
+      <c r="BE64" s="114"/>
+      <c r="BF64" s="114"/>
+      <c r="BG64" s="114"/>
+      <c r="BH64" s="114"/>
+      <c r="BI64" s="114"/>
+      <c r="BJ64" s="114"/>
+      <c r="BK64" s="114"/>
+      <c r="BL64" s="114"/>
     </row>
     <row r="65" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A65" s="24"/>
@@ -8262,8 +8267,8 @@
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
       <c r="S65" s="21"/>
-      <c r="T65" s="100"/>
-      <c r="U65" s="101"/>
+      <c r="T65" s="102"/>
+      <c r="U65" s="103"/>
       <c r="V65" s="21"/>
       <c r="W65" s="21"/>
       <c r="X65" s="21"/>
@@ -8284,29 +8289,29 @@
       <c r="AM65" s="21"/>
       <c r="AN65" s="21"/>
       <c r="AO65" s="21"/>
-      <c r="AP65" s="102"/>
-      <c r="AQ65" s="102"/>
-      <c r="AR65" s="102"/>
-      <c r="AS65" s="102"/>
-      <c r="AT65" s="102"/>
-      <c r="AU65" s="102"/>
-      <c r="AV65" s="102"/>
-      <c r="AW65" s="102"/>
-      <c r="AX65" s="102"/>
-      <c r="AY65" s="102"/>
-      <c r="AZ65" s="102"/>
-      <c r="BA65" s="102"/>
-      <c r="BB65" s="102"/>
-      <c r="BC65" s="102"/>
-      <c r="BD65" s="102"/>
-      <c r="BE65" s="102"/>
-      <c r="BF65" s="102"/>
-      <c r="BG65" s="102"/>
-      <c r="BH65" s="102"/>
-      <c r="BI65" s="102"/>
-      <c r="BJ65" s="102"/>
-      <c r="BK65" s="102"/>
-      <c r="BL65" s="102"/>
+      <c r="AP65" s="114"/>
+      <c r="AQ65" s="114"/>
+      <c r="AR65" s="114"/>
+      <c r="AS65" s="114"/>
+      <c r="AT65" s="114"/>
+      <c r="AU65" s="114"/>
+      <c r="AV65" s="114"/>
+      <c r="AW65" s="114"/>
+      <c r="AX65" s="114"/>
+      <c r="AY65" s="114"/>
+      <c r="AZ65" s="114"/>
+      <c r="BA65" s="114"/>
+      <c r="BB65" s="114"/>
+      <c r="BC65" s="114"/>
+      <c r="BD65" s="114"/>
+      <c r="BE65" s="114"/>
+      <c r="BF65" s="114"/>
+      <c r="BG65" s="114"/>
+      <c r="BH65" s="114"/>
+      <c r="BI65" s="114"/>
+      <c r="BJ65" s="114"/>
+      <c r="BK65" s="114"/>
+      <c r="BL65" s="114"/>
     </row>
     <row r="66" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A66" s="24"/>
@@ -8368,11 +8373,11 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="T66" s="100" t="str">
+      <c r="T66" s="102" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="U66" s="101"/>
+      <c r="U66" s="103"/>
       <c r="V66" s="21" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -8453,29 +8458,29 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AP66" s="102"/>
-      <c r="AQ66" s="102"/>
-      <c r="AR66" s="102"/>
-      <c r="AS66" s="102"/>
-      <c r="AT66" s="102"/>
-      <c r="AU66" s="102"/>
-      <c r="AV66" s="102"/>
-      <c r="AW66" s="102"/>
-      <c r="AX66" s="102"/>
-      <c r="AY66" s="102"/>
-      <c r="AZ66" s="102"/>
-      <c r="BA66" s="102"/>
-      <c r="BB66" s="102"/>
-      <c r="BC66" s="102"/>
-      <c r="BD66" s="102"/>
-      <c r="BE66" s="102"/>
-      <c r="BF66" s="102"/>
-      <c r="BG66" s="102"/>
-      <c r="BH66" s="102"/>
-      <c r="BI66" s="102"/>
-      <c r="BJ66" s="102"/>
-      <c r="BK66" s="102"/>
-      <c r="BL66" s="102"/>
+      <c r="AP66" s="114"/>
+      <c r="AQ66" s="114"/>
+      <c r="AR66" s="114"/>
+      <c r="AS66" s="114"/>
+      <c r="AT66" s="114"/>
+      <c r="AU66" s="114"/>
+      <c r="AV66" s="114"/>
+      <c r="AW66" s="114"/>
+      <c r="AX66" s="114"/>
+      <c r="AY66" s="114"/>
+      <c r="AZ66" s="114"/>
+      <c r="BA66" s="114"/>
+      <c r="BB66" s="114"/>
+      <c r="BC66" s="114"/>
+      <c r="BD66" s="114"/>
+      <c r="BE66" s="114"/>
+      <c r="BF66" s="114"/>
+      <c r="BG66" s="114"/>
+      <c r="BH66" s="114"/>
+      <c r="BI66" s="114"/>
+      <c r="BJ66" s="114"/>
+      <c r="BK66" s="114"/>
+      <c r="BL66" s="114"/>
     </row>
     <row r="67" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A67" s="24"/>
@@ -8507,8 +8512,8 @@
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
-      <c r="T67" s="100"/>
-      <c r="U67" s="101"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="103"/>
       <c r="V67" s="21"/>
       <c r="W67" s="21"/>
       <c r="X67" s="21"/>
@@ -8529,29 +8534,29 @@
       <c r="AM67" s="21"/>
       <c r="AN67" s="21"/>
       <c r="AO67" s="21"/>
-      <c r="AP67" s="102"/>
-      <c r="AQ67" s="102"/>
-      <c r="AR67" s="102"/>
-      <c r="AS67" s="102"/>
-      <c r="AT67" s="102"/>
-      <c r="AU67" s="102"/>
-      <c r="AV67" s="102"/>
-      <c r="AW67" s="102"/>
-      <c r="AX67" s="102"/>
-      <c r="AY67" s="102"/>
-      <c r="AZ67" s="102"/>
-      <c r="BA67" s="102"/>
-      <c r="BB67" s="102"/>
-      <c r="BC67" s="102"/>
-      <c r="BD67" s="102"/>
-      <c r="BE67" s="102"/>
-      <c r="BF67" s="102"/>
-      <c r="BG67" s="102"/>
-      <c r="BH67" s="102"/>
-      <c r="BI67" s="102"/>
-      <c r="BJ67" s="102"/>
-      <c r="BK67" s="102"/>
-      <c r="BL67" s="102"/>
+      <c r="AP67" s="114"/>
+      <c r="AQ67" s="114"/>
+      <c r="AR67" s="114"/>
+      <c r="AS67" s="114"/>
+      <c r="AT67" s="114"/>
+      <c r="AU67" s="114"/>
+      <c r="AV67" s="114"/>
+      <c r="AW67" s="114"/>
+      <c r="AX67" s="114"/>
+      <c r="AY67" s="114"/>
+      <c r="AZ67" s="114"/>
+      <c r="BA67" s="114"/>
+      <c r="BB67" s="114"/>
+      <c r="BC67" s="114"/>
+      <c r="BD67" s="114"/>
+      <c r="BE67" s="114"/>
+      <c r="BF67" s="114"/>
+      <c r="BG67" s="114"/>
+      <c r="BH67" s="114"/>
+      <c r="BI67" s="114"/>
+      <c r="BJ67" s="114"/>
+      <c r="BK67" s="114"/>
+      <c r="BL67" s="114"/>
     </row>
     <row r="68" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A68" s="24"/>
@@ -8583,8 +8588,8 @@
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
-      <c r="T68" s="100"/>
-      <c r="U68" s="101"/>
+      <c r="T68" s="102"/>
+      <c r="U68" s="103"/>
       <c r="V68" s="21"/>
       <c r="W68" s="21"/>
       <c r="X68" s="21"/>
@@ -8605,29 +8610,29 @@
       <c r="AM68" s="21"/>
       <c r="AN68" s="21"/>
       <c r="AO68" s="21"/>
-      <c r="AP68" s="102"/>
-      <c r="AQ68" s="102"/>
-      <c r="AR68" s="102"/>
-      <c r="AS68" s="102"/>
-      <c r="AT68" s="102"/>
-      <c r="AU68" s="102"/>
-      <c r="AV68" s="102"/>
-      <c r="AW68" s="102"/>
-      <c r="AX68" s="102"/>
-      <c r="AY68" s="102"/>
-      <c r="AZ68" s="102"/>
-      <c r="BA68" s="102"/>
-      <c r="BB68" s="102"/>
-      <c r="BC68" s="102"/>
-      <c r="BD68" s="102"/>
-      <c r="BE68" s="102"/>
-      <c r="BF68" s="102"/>
-      <c r="BG68" s="102"/>
-      <c r="BH68" s="102"/>
-      <c r="BI68" s="102"/>
-      <c r="BJ68" s="102"/>
-      <c r="BK68" s="102"/>
-      <c r="BL68" s="102"/>
+      <c r="AP68" s="114"/>
+      <c r="AQ68" s="114"/>
+      <c r="AR68" s="114"/>
+      <c r="AS68" s="114"/>
+      <c r="AT68" s="114"/>
+      <c r="AU68" s="114"/>
+      <c r="AV68" s="114"/>
+      <c r="AW68" s="114"/>
+      <c r="AX68" s="114"/>
+      <c r="AY68" s="114"/>
+      <c r="AZ68" s="114"/>
+      <c r="BA68" s="114"/>
+      <c r="BB68" s="114"/>
+      <c r="BC68" s="114"/>
+      <c r="BD68" s="114"/>
+      <c r="BE68" s="114"/>
+      <c r="BF68" s="114"/>
+      <c r="BG68" s="114"/>
+      <c r="BH68" s="114"/>
+      <c r="BI68" s="114"/>
+      <c r="BJ68" s="114"/>
+      <c r="BK68" s="114"/>
+      <c r="BL68" s="114"/>
     </row>
     <row r="69" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A69" s="24"/>
@@ -8657,8 +8662,8 @@
       <c r="Q69" s="21"/>
       <c r="R69" s="21"/>
       <c r="S69" s="21"/>
-      <c r="T69" s="100"/>
-      <c r="U69" s="101"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="103"/>
       <c r="V69" s="21"/>
       <c r="W69" s="21"/>
       <c r="X69" s="21"/>
@@ -8679,29 +8684,29 @@
       <c r="AM69" s="21"/>
       <c r="AN69" s="21"/>
       <c r="AO69" s="21"/>
-      <c r="AP69" s="102"/>
-      <c r="AQ69" s="102"/>
-      <c r="AR69" s="102"/>
-      <c r="AS69" s="102"/>
-      <c r="AT69" s="102"/>
-      <c r="AU69" s="102"/>
-      <c r="AV69" s="102"/>
-      <c r="AW69" s="102"/>
-      <c r="AX69" s="102"/>
-      <c r="AY69" s="102"/>
-      <c r="AZ69" s="102"/>
-      <c r="BA69" s="102"/>
-      <c r="BB69" s="102"/>
-      <c r="BC69" s="102"/>
-      <c r="BD69" s="102"/>
-      <c r="BE69" s="102"/>
-      <c r="BF69" s="102"/>
-      <c r="BG69" s="102"/>
-      <c r="BH69" s="102"/>
-      <c r="BI69" s="102"/>
-      <c r="BJ69" s="102"/>
-      <c r="BK69" s="102"/>
-      <c r="BL69" s="102"/>
+      <c r="AP69" s="114"/>
+      <c r="AQ69" s="114"/>
+      <c r="AR69" s="114"/>
+      <c r="AS69" s="114"/>
+      <c r="AT69" s="114"/>
+      <c r="AU69" s="114"/>
+      <c r="AV69" s="114"/>
+      <c r="AW69" s="114"/>
+      <c r="AX69" s="114"/>
+      <c r="AY69" s="114"/>
+      <c r="AZ69" s="114"/>
+      <c r="BA69" s="114"/>
+      <c r="BB69" s="114"/>
+      <c r="BC69" s="114"/>
+      <c r="BD69" s="114"/>
+      <c r="BE69" s="114"/>
+      <c r="BF69" s="114"/>
+      <c r="BG69" s="114"/>
+      <c r="BH69" s="114"/>
+      <c r="BI69" s="114"/>
+      <c r="BJ69" s="114"/>
+      <c r="BK69" s="114"/>
+      <c r="BL69" s="114"/>
     </row>
     <row r="70" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A70" s="24"/>
@@ -8735,8 +8740,8 @@
       <c r="S70" s="86"/>
       <c r="T70" s="86"/>
       <c r="U70" s="86"/>
-      <c r="V70" s="115"/>
-      <c r="W70" s="116"/>
+      <c r="V70" s="100"/>
+      <c r="W70" s="101"/>
       <c r="X70" s="86"/>
       <c r="Y70" s="86"/>
       <c r="Z70" s="86"/>
@@ -8755,29 +8760,29 @@
       <c r="AM70" s="86"/>
       <c r="AN70" s="86"/>
       <c r="AO70" s="86"/>
-      <c r="AP70" s="102"/>
-      <c r="AQ70" s="102"/>
-      <c r="AR70" s="102"/>
-      <c r="AS70" s="102"/>
-      <c r="AT70" s="102"/>
-      <c r="AU70" s="102"/>
-      <c r="AV70" s="102"/>
-      <c r="AW70" s="102"/>
-      <c r="AX70" s="102"/>
-      <c r="AY70" s="102"/>
-      <c r="AZ70" s="102"/>
-      <c r="BA70" s="102"/>
-      <c r="BB70" s="102"/>
-      <c r="BC70" s="102"/>
-      <c r="BD70" s="102"/>
-      <c r="BE70" s="102"/>
-      <c r="BF70" s="102"/>
-      <c r="BG70" s="102"/>
-      <c r="BH70" s="102"/>
-      <c r="BI70" s="102"/>
-      <c r="BJ70" s="102"/>
-      <c r="BK70" s="102"/>
-      <c r="BL70" s="102"/>
+      <c r="AP70" s="114"/>
+      <c r="AQ70" s="114"/>
+      <c r="AR70" s="114"/>
+      <c r="AS70" s="114"/>
+      <c r="AT70" s="114"/>
+      <c r="AU70" s="114"/>
+      <c r="AV70" s="114"/>
+      <c r="AW70" s="114"/>
+      <c r="AX70" s="114"/>
+      <c r="AY70" s="114"/>
+      <c r="AZ70" s="114"/>
+      <c r="BA70" s="114"/>
+      <c r="BB70" s="114"/>
+      <c r="BC70" s="114"/>
+      <c r="BD70" s="114"/>
+      <c r="BE70" s="114"/>
+      <c r="BF70" s="114"/>
+      <c r="BG70" s="114"/>
+      <c r="BH70" s="114"/>
+      <c r="BI70" s="114"/>
+      <c r="BJ70" s="114"/>
+      <c r="BK70" s="114"/>
+      <c r="BL70" s="114"/>
     </row>
     <row r="71" spans="1:64" s="89" customFormat="1" ht="36" customHeight="1">
       <c r="A71" s="90"/>
@@ -8823,29 +8828,29 @@
       <c r="AM71" s="33"/>
       <c r="AN71" s="33"/>
       <c r="AO71" s="33"/>
-      <c r="AP71" s="102"/>
-      <c r="AQ71" s="102"/>
-      <c r="AR71" s="102"/>
-      <c r="AS71" s="102"/>
-      <c r="AT71" s="102"/>
-      <c r="AU71" s="102"/>
-      <c r="AV71" s="102"/>
-      <c r="AW71" s="102"/>
-      <c r="AX71" s="102"/>
-      <c r="AY71" s="102"/>
-      <c r="AZ71" s="102"/>
-      <c r="BA71" s="102"/>
-      <c r="BB71" s="102"/>
-      <c r="BC71" s="102"/>
-      <c r="BD71" s="102"/>
-      <c r="BE71" s="102"/>
-      <c r="BF71" s="102"/>
-      <c r="BG71" s="102"/>
-      <c r="BH71" s="102"/>
-      <c r="BI71" s="102"/>
-      <c r="BJ71" s="102"/>
-      <c r="BK71" s="102"/>
-      <c r="BL71" s="102"/>
+      <c r="AP71" s="114"/>
+      <c r="AQ71" s="114"/>
+      <c r="AR71" s="114"/>
+      <c r="AS71" s="114"/>
+      <c r="AT71" s="114"/>
+      <c r="AU71" s="114"/>
+      <c r="AV71" s="114"/>
+      <c r="AW71" s="114"/>
+      <c r="AX71" s="114"/>
+      <c r="AY71" s="114"/>
+      <c r="AZ71" s="114"/>
+      <c r="BA71" s="114"/>
+      <c r="BB71" s="114"/>
+      <c r="BC71" s="114"/>
+      <c r="BD71" s="114"/>
+      <c r="BE71" s="114"/>
+      <c r="BF71" s="114"/>
+      <c r="BG71" s="114"/>
+      <c r="BH71" s="114"/>
+      <c r="BI71" s="114"/>
+      <c r="BJ71" s="114"/>
+      <c r="BK71" s="114"/>
+      <c r="BL71" s="114"/>
     </row>
     <row r="72" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A72" s="24"/>
@@ -8879,8 +8884,8 @@
       <c r="S72" s="21"/>
       <c r="T72" s="21"/>
       <c r="U72" s="21"/>
-      <c r="V72" s="100"/>
-      <c r="W72" s="101"/>
+      <c r="V72" s="102"/>
+      <c r="W72" s="103"/>
       <c r="X72" s="21"/>
       <c r="Y72" s="21"/>
       <c r="Z72" s="21"/>
@@ -8899,29 +8904,29 @@
       <c r="AM72" s="21"/>
       <c r="AN72" s="21"/>
       <c r="AO72" s="21"/>
-      <c r="AP72" s="102"/>
-      <c r="AQ72" s="102"/>
-      <c r="AR72" s="102"/>
-      <c r="AS72" s="102"/>
-      <c r="AT72" s="102"/>
-      <c r="AU72" s="102"/>
-      <c r="AV72" s="102"/>
-      <c r="AW72" s="102"/>
-      <c r="AX72" s="102"/>
-      <c r="AY72" s="102"/>
-      <c r="AZ72" s="102"/>
-      <c r="BA72" s="102"/>
-      <c r="BB72" s="102"/>
-      <c r="BC72" s="102"/>
-      <c r="BD72" s="102"/>
-      <c r="BE72" s="102"/>
-      <c r="BF72" s="102"/>
-      <c r="BG72" s="102"/>
-      <c r="BH72" s="102"/>
-      <c r="BI72" s="102"/>
-      <c r="BJ72" s="102"/>
-      <c r="BK72" s="102"/>
-      <c r="BL72" s="102"/>
+      <c r="AP72" s="114"/>
+      <c r="AQ72" s="114"/>
+      <c r="AR72" s="114"/>
+      <c r="AS72" s="114"/>
+      <c r="AT72" s="114"/>
+      <c r="AU72" s="114"/>
+      <c r="AV72" s="114"/>
+      <c r="AW72" s="114"/>
+      <c r="AX72" s="114"/>
+      <c r="AY72" s="114"/>
+      <c r="AZ72" s="114"/>
+      <c r="BA72" s="114"/>
+      <c r="BB72" s="114"/>
+      <c r="BC72" s="114"/>
+      <c r="BD72" s="114"/>
+      <c r="BE72" s="114"/>
+      <c r="BF72" s="114"/>
+      <c r="BG72" s="114"/>
+      <c r="BH72" s="114"/>
+      <c r="BI72" s="114"/>
+      <c r="BJ72" s="114"/>
+      <c r="BK72" s="114"/>
+      <c r="BL72" s="114"/>
     </row>
     <row r="73" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A73" s="24"/>
@@ -8965,8 +8970,8 @@
       <c r="AC73" s="21"/>
       <c r="AD73" s="21"/>
       <c r="AE73" s="21"/>
-      <c r="AF73" s="100"/>
-      <c r="AG73" s="101"/>
+      <c r="AF73" s="102"/>
+      <c r="AG73" s="103"/>
       <c r="AH73" s="21"/>
       <c r="AI73" s="21"/>
       <c r="AJ73" s="21"/>
@@ -8975,31 +8980,31 @@
       <c r="AM73" s="21"/>
       <c r="AN73" s="21"/>
       <c r="AO73" s="21"/>
-      <c r="AP73" s="102"/>
-      <c r="AQ73" s="102"/>
-      <c r="AR73" s="102"/>
-      <c r="AS73" s="102"/>
-      <c r="AT73" s="102"/>
-      <c r="AU73" s="102"/>
-      <c r="AV73" s="102"/>
-      <c r="AW73" s="102"/>
-      <c r="AX73" s="102"/>
-      <c r="AY73" s="102"/>
-      <c r="AZ73" s="102"/>
-      <c r="BA73" s="102"/>
-      <c r="BB73" s="102"/>
-      <c r="BC73" s="102"/>
-      <c r="BD73" s="102"/>
-      <c r="BE73" s="102"/>
-      <c r="BF73" s="102"/>
-      <c r="BG73" s="102"/>
-      <c r="BH73" s="102"/>
-      <c r="BI73" s="102"/>
-      <c r="BJ73" s="102"/>
-      <c r="BK73" s="102"/>
-      <c r="BL73" s="102"/>
+      <c r="AP73" s="114"/>
+      <c r="AQ73" s="114"/>
+      <c r="AR73" s="114"/>
+      <c r="AS73" s="114"/>
+      <c r="AT73" s="114"/>
+      <c r="AU73" s="114"/>
+      <c r="AV73" s="114"/>
+      <c r="AW73" s="114"/>
+      <c r="AX73" s="114"/>
+      <c r="AY73" s="114"/>
+      <c r="AZ73" s="114"/>
+      <c r="BA73" s="114"/>
+      <c r="BB73" s="114"/>
+      <c r="BC73" s="114"/>
+      <c r="BD73" s="114"/>
+      <c r="BE73" s="114"/>
+      <c r="BF73" s="114"/>
+      <c r="BG73" s="114"/>
+      <c r="BH73" s="114"/>
+      <c r="BI73" s="114"/>
+      <c r="BJ73" s="114"/>
+      <c r="BK73" s="114"/>
+      <c r="BL73" s="114"/>
     </row>
-    <row r="74" spans="1:64" s="22" customFormat="1" ht="38" customHeight="1">
+    <row r="74" spans="1:64" s="22" customFormat="1" ht="37.950000000000003" customHeight="1">
       <c r="A74" s="24"/>
       <c r="B74" s="23" t="s">
         <v>69</v>
@@ -9041,8 +9046,8 @@
       <c r="AC74" s="87"/>
       <c r="AD74" s="87"/>
       <c r="AE74" s="87"/>
-      <c r="AF74" s="115"/>
-      <c r="AG74" s="116"/>
+      <c r="AF74" s="100"/>
+      <c r="AG74" s="101"/>
       <c r="AH74" s="87"/>
       <c r="AI74" s="87"/>
       <c r="AJ74" s="87"/>
@@ -9051,29 +9056,29 @@
       <c r="AM74" s="87"/>
       <c r="AN74" s="87"/>
       <c r="AO74" s="87"/>
-      <c r="AP74" s="102"/>
-      <c r="AQ74" s="102"/>
-      <c r="AR74" s="102"/>
-      <c r="AS74" s="102"/>
-      <c r="AT74" s="102"/>
-      <c r="AU74" s="102"/>
-      <c r="AV74" s="102"/>
-      <c r="AW74" s="102"/>
-      <c r="AX74" s="102"/>
-      <c r="AY74" s="102"/>
-      <c r="AZ74" s="102"/>
-      <c r="BA74" s="102"/>
-      <c r="BB74" s="102"/>
-      <c r="BC74" s="102"/>
-      <c r="BD74" s="102"/>
-      <c r="BE74" s="102"/>
-      <c r="BF74" s="102"/>
-      <c r="BG74" s="102"/>
-      <c r="BH74" s="102"/>
-      <c r="BI74" s="102"/>
-      <c r="BJ74" s="102"/>
-      <c r="BK74" s="102"/>
-      <c r="BL74" s="102"/>
+      <c r="AP74" s="114"/>
+      <c r="AQ74" s="114"/>
+      <c r="AR74" s="114"/>
+      <c r="AS74" s="114"/>
+      <c r="AT74" s="114"/>
+      <c r="AU74" s="114"/>
+      <c r="AV74" s="114"/>
+      <c r="AW74" s="114"/>
+      <c r="AX74" s="114"/>
+      <c r="AY74" s="114"/>
+      <c r="AZ74" s="114"/>
+      <c r="BA74" s="114"/>
+      <c r="BB74" s="114"/>
+      <c r="BC74" s="114"/>
+      <c r="BD74" s="114"/>
+      <c r="BE74" s="114"/>
+      <c r="BF74" s="114"/>
+      <c r="BG74" s="114"/>
+      <c r="BH74" s="114"/>
+      <c r="BI74" s="114"/>
+      <c r="BJ74" s="114"/>
+      <c r="BK74" s="114"/>
+      <c r="BL74" s="114"/>
     </row>
     <row r="75" spans="1:64" s="92" customFormat="1" ht="36" customHeight="1">
       <c r="A75" s="91"/>
@@ -9119,29 +9124,29 @@
       <c r="AM75" s="33"/>
       <c r="AN75" s="33"/>
       <c r="AO75" s="33"/>
-      <c r="AP75" s="102"/>
-      <c r="AQ75" s="102"/>
-      <c r="AR75" s="102"/>
-      <c r="AS75" s="102"/>
-      <c r="AT75" s="102"/>
-      <c r="AU75" s="102"/>
-      <c r="AV75" s="102"/>
-      <c r="AW75" s="102"/>
-      <c r="AX75" s="102"/>
-      <c r="AY75" s="102"/>
-      <c r="AZ75" s="102"/>
-      <c r="BA75" s="102"/>
-      <c r="BB75" s="102"/>
-      <c r="BC75" s="102"/>
-      <c r="BD75" s="102"/>
-      <c r="BE75" s="102"/>
-      <c r="BF75" s="102"/>
-      <c r="BG75" s="102"/>
-      <c r="BH75" s="102"/>
-      <c r="BI75" s="102"/>
-      <c r="BJ75" s="102"/>
-      <c r="BK75" s="102"/>
-      <c r="BL75" s="102"/>
+      <c r="AP75" s="114"/>
+      <c r="AQ75" s="114"/>
+      <c r="AR75" s="114"/>
+      <c r="AS75" s="114"/>
+      <c r="AT75" s="114"/>
+      <c r="AU75" s="114"/>
+      <c r="AV75" s="114"/>
+      <c r="AW75" s="114"/>
+      <c r="AX75" s="114"/>
+      <c r="AY75" s="114"/>
+      <c r="AZ75" s="114"/>
+      <c r="BA75" s="114"/>
+      <c r="BB75" s="114"/>
+      <c r="BC75" s="114"/>
+      <c r="BD75" s="114"/>
+      <c r="BE75" s="114"/>
+      <c r="BF75" s="114"/>
+      <c r="BG75" s="114"/>
+      <c r="BH75" s="114"/>
+      <c r="BI75" s="114"/>
+      <c r="BJ75" s="114"/>
+      <c r="BK75" s="114"/>
+      <c r="BL75" s="114"/>
     </row>
     <row r="76" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A76" s="24"/>
@@ -9191,29 +9196,29 @@
       <c r="AM76" s="21"/>
       <c r="AN76" s="21"/>
       <c r="AO76" s="21"/>
-      <c r="AP76" s="102"/>
-      <c r="AQ76" s="102"/>
-      <c r="AR76" s="102"/>
-      <c r="AS76" s="102"/>
-      <c r="AT76" s="102"/>
-      <c r="AU76" s="102"/>
-      <c r="AV76" s="102"/>
-      <c r="AW76" s="102"/>
-      <c r="AX76" s="102"/>
-      <c r="AY76" s="102"/>
-      <c r="AZ76" s="102"/>
-      <c r="BA76" s="102"/>
-      <c r="BB76" s="102"/>
-      <c r="BC76" s="102"/>
-      <c r="BD76" s="102"/>
-      <c r="BE76" s="102"/>
-      <c r="BF76" s="102"/>
-      <c r="BG76" s="102"/>
-      <c r="BH76" s="102"/>
-      <c r="BI76" s="102"/>
-      <c r="BJ76" s="102"/>
-      <c r="BK76" s="102"/>
-      <c r="BL76" s="102"/>
+      <c r="AP76" s="114"/>
+      <c r="AQ76" s="114"/>
+      <c r="AR76" s="114"/>
+      <c r="AS76" s="114"/>
+      <c r="AT76" s="114"/>
+      <c r="AU76" s="114"/>
+      <c r="AV76" s="114"/>
+      <c r="AW76" s="114"/>
+      <c r="AX76" s="114"/>
+      <c r="AY76" s="114"/>
+      <c r="AZ76" s="114"/>
+      <c r="BA76" s="114"/>
+      <c r="BB76" s="114"/>
+      <c r="BC76" s="114"/>
+      <c r="BD76" s="114"/>
+      <c r="BE76" s="114"/>
+      <c r="BF76" s="114"/>
+      <c r="BG76" s="114"/>
+      <c r="BH76" s="114"/>
+      <c r="BI76" s="114"/>
+      <c r="BJ76" s="114"/>
+      <c r="BK76" s="114"/>
+      <c r="BL76" s="114"/>
     </row>
     <row r="77" spans="1:64" s="22" customFormat="1" ht="36" customHeight="1">
       <c r="A77" s="24"/>
@@ -9263,29 +9268,29 @@
       <c r="AM77" s="21"/>
       <c r="AN77" s="21"/>
       <c r="AO77" s="21"/>
-      <c r="AP77" s="102"/>
-      <c r="AQ77" s="102"/>
-      <c r="AR77" s="102"/>
-      <c r="AS77" s="102"/>
-      <c r="AT77" s="102"/>
-      <c r="AU77" s="102"/>
-      <c r="AV77" s="102"/>
-      <c r="AW77" s="102"/>
-      <c r="AX77" s="102"/>
-      <c r="AY77" s="102"/>
-      <c r="AZ77" s="102"/>
-      <c r="BA77" s="102"/>
-      <c r="BB77" s="102"/>
-      <c r="BC77" s="102"/>
-      <c r="BD77" s="102"/>
-      <c r="BE77" s="102"/>
-      <c r="BF77" s="102"/>
-      <c r="BG77" s="102"/>
-      <c r="BH77" s="102"/>
-      <c r="BI77" s="102"/>
-      <c r="BJ77" s="102"/>
-      <c r="BK77" s="102"/>
-      <c r="BL77" s="102"/>
+      <c r="AP77" s="114"/>
+      <c r="AQ77" s="114"/>
+      <c r="AR77" s="114"/>
+      <c r="AS77" s="114"/>
+      <c r="AT77" s="114"/>
+      <c r="AU77" s="114"/>
+      <c r="AV77" s="114"/>
+      <c r="AW77" s="114"/>
+      <c r="AX77" s="114"/>
+      <c r="AY77" s="114"/>
+      <c r="AZ77" s="114"/>
+      <c r="BA77" s="114"/>
+      <c r="BB77" s="114"/>
+      <c r="BC77" s="114"/>
+      <c r="BD77" s="114"/>
+      <c r="BE77" s="114"/>
+      <c r="BF77" s="114"/>
+      <c r="BG77" s="114"/>
+      <c r="BH77" s="114"/>
+      <c r="BI77" s="114"/>
+      <c r="BJ77" s="114"/>
+      <c r="BK77" s="114"/>
+      <c r="BL77" s="114"/>
     </row>
     <row r="78" spans="1:64" s="37" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22" t="s">
@@ -9332,29 +9337,29 @@
       <c r="AM78" s="33"/>
       <c r="AN78" s="33"/>
       <c r="AO78" s="33"/>
-      <c r="AP78" s="102"/>
-      <c r="AQ78" s="102"/>
-      <c r="AR78" s="102"/>
-      <c r="AS78" s="102"/>
-      <c r="AT78" s="102"/>
-      <c r="AU78" s="102"/>
-      <c r="AV78" s="102"/>
-      <c r="AW78" s="102"/>
-      <c r="AX78" s="102"/>
-      <c r="AY78" s="102"/>
-      <c r="AZ78" s="102"/>
-      <c r="BA78" s="102"/>
-      <c r="BB78" s="102"/>
-      <c r="BC78" s="102"/>
-      <c r="BD78" s="102"/>
-      <c r="BE78" s="102"/>
-      <c r="BF78" s="102"/>
-      <c r="BG78" s="102"/>
-      <c r="BH78" s="102"/>
-      <c r="BI78" s="102"/>
-      <c r="BJ78" s="102"/>
-      <c r="BK78" s="102"/>
-      <c r="BL78" s="102"/>
+      <c r="AP78" s="114"/>
+      <c r="AQ78" s="114"/>
+      <c r="AR78" s="114"/>
+      <c r="AS78" s="114"/>
+      <c r="AT78" s="114"/>
+      <c r="AU78" s="114"/>
+      <c r="AV78" s="114"/>
+      <c r="AW78" s="114"/>
+      <c r="AX78" s="114"/>
+      <c r="AY78" s="114"/>
+      <c r="AZ78" s="114"/>
+      <c r="BA78" s="114"/>
+      <c r="BB78" s="114"/>
+      <c r="BC78" s="114"/>
+      <c r="BD78" s="114"/>
+      <c r="BE78" s="114"/>
+      <c r="BF78" s="114"/>
+      <c r="BG78" s="114"/>
+      <c r="BH78" s="114"/>
+      <c r="BI78" s="114"/>
+      <c r="BJ78" s="114"/>
+      <c r="BK78" s="114"/>
+      <c r="BL78" s="114"/>
     </row>
     <row r="79" spans="1:64" s="93" customFormat="1" ht="30" customHeight="1">
       <c r="A79" s="27"/>
@@ -9400,29 +9405,29 @@
       <c r="AM79" s="33"/>
       <c r="AN79" s="33"/>
       <c r="AO79" s="33"/>
-      <c r="AP79" s="102"/>
-      <c r="AQ79" s="102"/>
-      <c r="AR79" s="102"/>
-      <c r="AS79" s="102"/>
-      <c r="AT79" s="102"/>
-      <c r="AU79" s="102"/>
-      <c r="AV79" s="102"/>
-      <c r="AW79" s="102"/>
-      <c r="AX79" s="102"/>
-      <c r="AY79" s="102"/>
-      <c r="AZ79" s="102"/>
-      <c r="BA79" s="102"/>
-      <c r="BB79" s="102"/>
-      <c r="BC79" s="102"/>
-      <c r="BD79" s="102"/>
-      <c r="BE79" s="102"/>
-      <c r="BF79" s="102"/>
-      <c r="BG79" s="102"/>
-      <c r="BH79" s="102"/>
-      <c r="BI79" s="102"/>
-      <c r="BJ79" s="102"/>
-      <c r="BK79" s="102"/>
-      <c r="BL79" s="102"/>
+      <c r="AP79" s="114"/>
+      <c r="AQ79" s="114"/>
+      <c r="AR79" s="114"/>
+      <c r="AS79" s="114"/>
+      <c r="AT79" s="114"/>
+      <c r="AU79" s="114"/>
+      <c r="AV79" s="114"/>
+      <c r="AW79" s="114"/>
+      <c r="AX79" s="114"/>
+      <c r="AY79" s="114"/>
+      <c r="AZ79" s="114"/>
+      <c r="BA79" s="114"/>
+      <c r="BB79" s="114"/>
+      <c r="BC79" s="114"/>
+      <c r="BD79" s="114"/>
+      <c r="BE79" s="114"/>
+      <c r="BF79" s="114"/>
+      <c r="BG79" s="114"/>
+      <c r="BH79" s="114"/>
+      <c r="BI79" s="114"/>
+      <c r="BJ79" s="114"/>
+      <c r="BK79" s="114"/>
+      <c r="BL79" s="114"/>
     </row>
     <row r="80" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1">
       <c r="A80" s="24"/>
@@ -9471,29 +9476,29 @@
       <c r="AM80" s="33"/>
       <c r="AN80" s="33"/>
       <c r="AO80" s="33"/>
-      <c r="AP80" s="102"/>
-      <c r="AQ80" s="102"/>
-      <c r="AR80" s="102"/>
-      <c r="AS80" s="102"/>
-      <c r="AT80" s="102"/>
-      <c r="AU80" s="102"/>
-      <c r="AV80" s="102"/>
-      <c r="AW80" s="102"/>
-      <c r="AX80" s="102"/>
-      <c r="AY80" s="102"/>
-      <c r="AZ80" s="102"/>
-      <c r="BA80" s="102"/>
-      <c r="BB80" s="102"/>
-      <c r="BC80" s="102"/>
-      <c r="BD80" s="102"/>
-      <c r="BE80" s="102"/>
-      <c r="BF80" s="102"/>
-      <c r="BG80" s="102"/>
-      <c r="BH80" s="102"/>
-      <c r="BI80" s="102"/>
-      <c r="BJ80" s="102"/>
-      <c r="BK80" s="102"/>
-      <c r="BL80" s="102"/>
+      <c r="AP80" s="114"/>
+      <c r="AQ80" s="114"/>
+      <c r="AR80" s="114"/>
+      <c r="AS80" s="114"/>
+      <c r="AT80" s="114"/>
+      <c r="AU80" s="114"/>
+      <c r="AV80" s="114"/>
+      <c r="AW80" s="114"/>
+      <c r="AX80" s="114"/>
+      <c r="AY80" s="114"/>
+      <c r="AZ80" s="114"/>
+      <c r="BA80" s="114"/>
+      <c r="BB80" s="114"/>
+      <c r="BC80" s="114"/>
+      <c r="BD80" s="114"/>
+      <c r="BE80" s="114"/>
+      <c r="BF80" s="114"/>
+      <c r="BG80" s="114"/>
+      <c r="BH80" s="114"/>
+      <c r="BI80" s="114"/>
+      <c r="BJ80" s="114"/>
+      <c r="BK80" s="114"/>
+      <c r="BL80" s="114"/>
     </row>
     <row r="81" spans="1:64" s="93" customFormat="1" ht="30" customHeight="1">
       <c r="A81" s="27"/>
@@ -9539,29 +9544,29 @@
       <c r="AM81" s="33"/>
       <c r="AN81" s="33"/>
       <c r="AO81" s="33"/>
-      <c r="AP81" s="102"/>
-      <c r="AQ81" s="102"/>
-      <c r="AR81" s="102"/>
-      <c r="AS81" s="102"/>
-      <c r="AT81" s="102"/>
-      <c r="AU81" s="102"/>
-      <c r="AV81" s="102"/>
-      <c r="AW81" s="102"/>
-      <c r="AX81" s="102"/>
-      <c r="AY81" s="102"/>
-      <c r="AZ81" s="102"/>
-      <c r="BA81" s="102"/>
-      <c r="BB81" s="102"/>
-      <c r="BC81" s="102"/>
-      <c r="BD81" s="102"/>
-      <c r="BE81" s="102"/>
-      <c r="BF81" s="102"/>
-      <c r="BG81" s="102"/>
-      <c r="BH81" s="102"/>
-      <c r="BI81" s="102"/>
-      <c r="BJ81" s="102"/>
-      <c r="BK81" s="102"/>
-      <c r="BL81" s="102"/>
+      <c r="AP81" s="114"/>
+      <c r="AQ81" s="114"/>
+      <c r="AR81" s="114"/>
+      <c r="AS81" s="114"/>
+      <c r="AT81" s="114"/>
+      <c r="AU81" s="114"/>
+      <c r="AV81" s="114"/>
+      <c r="AW81" s="114"/>
+      <c r="AX81" s="114"/>
+      <c r="AY81" s="114"/>
+      <c r="AZ81" s="114"/>
+      <c r="BA81" s="114"/>
+      <c r="BB81" s="114"/>
+      <c r="BC81" s="114"/>
+      <c r="BD81" s="114"/>
+      <c r="BE81" s="114"/>
+      <c r="BF81" s="114"/>
+      <c r="BG81" s="114"/>
+      <c r="BH81" s="114"/>
+      <c r="BI81" s="114"/>
+      <c r="BJ81" s="114"/>
+      <c r="BK81" s="114"/>
+      <c r="BL81" s="114"/>
     </row>
     <row r="82" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1">
       <c r="A82" s="24"/>
@@ -9610,29 +9615,29 @@
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
       <c r="AO82" s="21"/>
-      <c r="AP82" s="103"/>
-      <c r="AQ82" s="103"/>
-      <c r="AR82" s="103"/>
-      <c r="AS82" s="103"/>
-      <c r="AT82" s="103"/>
-      <c r="AU82" s="103"/>
-      <c r="AV82" s="103"/>
-      <c r="AW82" s="103"/>
-      <c r="AX82" s="103"/>
-      <c r="AY82" s="103"/>
-      <c r="AZ82" s="103"/>
-      <c r="BA82" s="103"/>
-      <c r="BB82" s="103"/>
-      <c r="BC82" s="103"/>
-      <c r="BD82" s="103"/>
-      <c r="BE82" s="103"/>
-      <c r="BF82" s="103"/>
-      <c r="BG82" s="103"/>
-      <c r="BH82" s="103"/>
-      <c r="BI82" s="103"/>
-      <c r="BJ82" s="103"/>
-      <c r="BK82" s="103"/>
-      <c r="BL82" s="103"/>
+      <c r="AP82" s="115"/>
+      <c r="AQ82" s="115"/>
+      <c r="AR82" s="115"/>
+      <c r="AS82" s="115"/>
+      <c r="AT82" s="115"/>
+      <c r="AU82" s="115"/>
+      <c r="AV82" s="115"/>
+      <c r="AW82" s="115"/>
+      <c r="AX82" s="115"/>
+      <c r="AY82" s="115"/>
+      <c r="AZ82" s="115"/>
+      <c r="BA82" s="115"/>
+      <c r="BB82" s="115"/>
+      <c r="BC82" s="115"/>
+      <c r="BD82" s="115"/>
+      <c r="BE82" s="115"/>
+      <c r="BF82" s="115"/>
+      <c r="BG82" s="115"/>
+      <c r="BH82" s="115"/>
+      <c r="BI82" s="115"/>
+      <c r="BJ82" s="115"/>
+      <c r="BK82" s="115"/>
+      <c r="BL82" s="115"/>
     </row>
     <row r="83" spans="1:64" s="37" customFormat="1" ht="30" customHeight="1">
       <c r="A83" s="24"/>
@@ -9717,48 +9722,8 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="AF74:AG74"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AF49:AG49"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AH5:AO5"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="Z5:AG5"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="AP5:BL82"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -9775,11 +9740,33 @@
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="AJ6:AK6"/>
     <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AH5:AO5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="Z5:AG5"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="R41:S41"/>
     <mergeCell ref="R33:S33"/>
     <mergeCell ref="R34:S34"/>
     <mergeCell ref="R35:S35"/>
     <mergeCell ref="R36:S36"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="R37:S37"/>
     <mergeCell ref="R3:W3"/>
     <mergeCell ref="Z3:AE3"/>
@@ -9791,8 +9778,26 @@
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="R31:S31"/>
     <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R5:Y5"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="AF73:AG73"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T69:U69"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F83">
     <cfRule type="dataBar" priority="14">
@@ -9809,199 +9814,199 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5 Z5 AH5 R7:AN24 R42:AN44 R26:R41 T25:AN41 R51:AN51 R50:T50 V50:AN50 R53:AN53 R52:AD52 AF52:AN52 R49:AF49 AD48:AN48 R48:AA48 AH49:AN49 R45:AD47 AF45:AN47 R57:AN59 R54:X56 Z54:AN56 R61:AN62 R60 T60:AN60 R71:AN71 R63:R64 T63:AN64 R65:T69 V65:AN69 R70:V70 X70:AN70 R75:AN82 R72:V72 X72:AN72 R73:AF74 AH73:AN74">
-    <cfRule type="expression" dxfId="48" priority="23">
+    <cfRule type="expression" dxfId="57" priority="23">
       <formula>AND(TODAY()&gt;=R$5,TODAY()&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:AO24 R42:AO43 R26:R41 T25:AO41 R50:T50 R51:AO51 V50:AO50 R53:AO53 R52:AD52 AF52:AO52 R49:AF49 R48:AA48 AD48:AO48 AH49:AO49 R45:AD47 AF45:AO47 R57:AO59 R54:X56 Z54:AO56 R61:AO62 R60 T60:AO60 R71:AO71 R63:R64 T63:AO64 R65:T69 V65:AO69 R70:V70 X70:AO70 R75:AO82 R72:V72 X72:AO72 R73:AF74 AH73:AO74">
-    <cfRule type="expression" dxfId="47" priority="2702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="2702" stopIfTrue="1">
       <formula>AND($C8="Low Risk",R$5&gt;=$G8,R$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="2703" stopIfTrue="1">
       <formula>AND($C8="High Risk",R$5&gt;=$G8,R$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="2704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="2704" stopIfTrue="1">
       <formula>AND($C8="On Track",R$5&gt;=$G8,R$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="2705" stopIfTrue="1">
       <formula>AND($C8="Med Risk",R$5&gt;=$G8,R$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="2706" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,R$5&gt;=$G8,R$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44:AO44">
-    <cfRule type="expression" dxfId="42" priority="2712" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="2712" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",R$5&gt;=$G45,R$5&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="2713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="2713" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",R$5&gt;=$G45,R$5&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="2714" stopIfTrue="1">
       <formula>AND(#REF!="On Track",R$5&gt;=$G45,R$5&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="2715" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="2715" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",R$5&gt;=$G45,R$5&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2716" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="2716" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,R$5&gt;=$G45,R$5&lt;=$G45+$H45-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q19 Q22 Q25:Q82">
-    <cfRule type="expression" dxfId="37" priority="2718">
+    <cfRule type="expression" dxfId="46" priority="2718">
       <formula>AND(TODAY()&gt;=Q$6,TODAY()&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J82">
-    <cfRule type="expression" dxfId="36" priority="2721">
+    <cfRule type="expression" dxfId="45" priority="2721">
       <formula>AND(TODAY()&gt;=J$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:Q8 J45:Q58 J12:Q12 J9:J11 L9:Q11 J14:Q14 J13:L13 N13:Q13 J16:Q16 J15:L15 N15:Q15 J18:Q19 J17:N17 P17:Q17 J22:Q22 J20:P21 J25:Q43 J23:P24 J60:Q82 J59 L59:Q59">
-    <cfRule type="expression" dxfId="35" priority="2733" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="2733" stopIfTrue="1">
       <formula>AND($C8="Low Risk",J$6&gt;=$G8,J$6&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2734" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="2734" stopIfTrue="1">
       <formula>AND($C8="High Risk",J$6&gt;=$G8,J$6&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2735" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="2735" stopIfTrue="1">
       <formula>AND($C8="On Track",J$6&gt;=$G8,J$6&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2736" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="2736" stopIfTrue="1">
       <formula>AND($C8="Med Risk",J$6&gt;=$G8,J$6&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="2737" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$6&gt;=$G8,J$6&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:Q44">
-    <cfRule type="expression" dxfId="30" priority="2773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2773" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",J$6&gt;=$G45,J$6&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="2774" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",J$6&gt;=$G45,J$6&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2775" stopIfTrue="1">
       <formula>AND(#REF!="On Track",J$6&gt;=$G45,J$6&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="2776" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",J$6&gt;=$G45,J$6&lt;=$G45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2777" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="2777" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$6&gt;=$G45,J$6&lt;=$G45+$H45-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 N6 P6 K7:P8 K12:P12 L9:P11 K14:P14 K13:L13 N13:P13 K16:P16 K15:L15 N15:P15 K18:P58 K17:N17 P17 K60:P82 L59:P59">
-    <cfRule type="expression" dxfId="25" priority="2778">
+    <cfRule type="expression" dxfId="34" priority="2778">
       <formula>AND(TODAY()&gt;=K$6,TODAY()&lt;L$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN6">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>AND(TODAY()&gt;=AN$6,TODAY()&lt;AO$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>AND(TODAY()&gt;=R$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>AND(TODAY()&gt;=T$6,TODAY()&lt;U$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>AND(TODAY()&gt;=V$6,TODAY()&lt;W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>AND(TODAY()&gt;=X$6,TODAY()&lt;Y$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>AND(TODAY()&gt;=Z$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>AND(TODAY()&gt;=AB$6,TODAY()&lt;AC$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD6">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(TODAY()&gt;=AD$6,TODAY()&lt;AE$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>AND(TODAY()&gt;=AF$6,TODAY()&lt;AG$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>AND(TODAY()&gt;=AH$6,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>AND(TODAY()&gt;=AJ$6,TODAY()&lt;AK$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(TODAY()&gt;=AL$6,TODAY()&lt;AM$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5">
-    <cfRule type="expression" dxfId="12" priority="2780">
+    <cfRule type="expression" dxfId="21" priority="2780">
       <formula>AND(TODAY()&gt;=#REF!,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AO82">
-    <cfRule type="expression" dxfId="11" priority="2781">
+    <cfRule type="expression" dxfId="20" priority="2781">
       <formula>AND(TODAY()&gt;=AO$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5">
-    <cfRule type="expression" dxfId="10" priority="2806" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2806" stopIfTrue="1">
       <formula>AND($C8="Low Risk",#REF!&gt;=$G8,#REF!&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2807" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2807" stopIfTrue="1">
       <formula>AND($C8="High Risk",#REF!&gt;=$G8,#REF!&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2808" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2808" stopIfTrue="1">
       <formula>AND($C8="On Track",#REF!&gt;=$G8,#REF!&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2809" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2809" stopIfTrue="1">
       <formula>AND($C8="Med Risk",#REF!&gt;=$G8,#REF!&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2810" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2810" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,#REF!&gt;=$G8,#REF!&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="5" priority="2811">
+    <cfRule type="expression" dxfId="14" priority="2811">
       <formula>AND(TODAY()&gt;=R$5,TODAY()&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="4" priority="2850" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2850" stopIfTrue="1">
       <formula>AND($C26="Low Risk",R$5&gt;=$G26,R$5&lt;=$G26+$H26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2851" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2851" stopIfTrue="1">
       <formula>AND($C26="High Risk",R$5&gt;=$G26,R$5&lt;=$G26+$H26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2852" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2852" stopIfTrue="1">
       <formula>AND($C26="On Track",R$5&gt;=$G26,R$5&lt;=$G26+$H26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2853" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2853" stopIfTrue="1">
       <formula>AND($C26="Med Risk",R$5&gt;=$G26,R$5&lt;=$G26+$H26-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2854" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2854" stopIfTrue="1">
       <formula>AND(LEN($C26)=0,R$5&gt;=$G26,R$5&lt;=$G26+$H26-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10077,7 +10082,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
